--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1148878.317231776</v>
+        <v>1136540.341941547</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675438.956232704</v>
+        <v>1675438.956232698</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>22.58502806141637</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>174.1719452804786</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926961</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.06392343821568</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781160222249223</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>125.2342876630362</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>47.44688981803871</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>76.83081349792759</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>179.7235837454051</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>160.0245354818138</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>303.3081494931583</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>142.771004792063</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>210.0125969208741</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>186.8250998946398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>85.95014028179246</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.5873298926978</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>195.0465954186451</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>16.2253929191381</v>
       </c>
     </row>
     <row r="15">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>86.35257921647522</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>217.7139640359385</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>134.0513867710694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>114.4746095917495</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>193.9790272259935</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>256.7273523546854</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>42.24368752399549</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2289,7 +2289,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>173.1942117550905</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>174.6303967226472</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963236</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1864042025732</v>
+        <v>283.1864042025731</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.77443380478221</v>
+        <v>83.77443380478216</v>
       </c>
       <c r="T23" t="n">
-        <v>195.0617516471533</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U23" t="n">
         <v>250.905953473387</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>81.59419338597722</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H25" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.30841035179635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.43890183961368</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0509578340822</v>
+        <v>181.0509578340821</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>276.0659506418677</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1864042025732</v>
+        <v>283.1864042025731</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.77443380478221</v>
+        <v>83.77443380478216</v>
       </c>
       <c r="T26" t="n">
         <v>199.03604613535</v>
       </c>
       <c r="U26" t="n">
-        <v>246.9316589851908</v>
+        <v>246.9316589851935</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>81.59419338597722</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H28" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.30841035179635</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.43890183961368</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0509578340821</v>
       </c>
       <c r="T28" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V28" t="n">
-        <v>205.3200542254939</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1864042025732</v>
+        <v>279.2121097143799</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.8001393165863</v>
+        <v>83.77443380478216</v>
       </c>
       <c r="T29" t="n">
         <v>199.03604613535</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.30841035179635</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.50921355551333</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0509578340822</v>
+        <v>181.0509578340821</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U31" t="n">
         <v>286.184551609377</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>215.5910544215278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>402.9017512535181</v>
       </c>
       <c r="G32" t="n">
         <v>409.8064945845168</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1864042025732</v>
+        <v>283.1864042025731</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.8001393165863</v>
+        <v>83.77443380478216</v>
       </c>
       <c r="T32" t="n">
         <v>199.03604613535</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.41449282632074</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>165.525553994704</v>
       </c>
       <c r="H34" t="n">
-        <v>140.3072997278744</v>
+        <v>140.3072997278743</v>
       </c>
       <c r="I34" t="n">
-        <v>81.30841035179635</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0509578340821</v>
       </c>
       <c r="T34" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>72.0245167714755</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963236</v>
       </c>
       <c r="H35" t="n">
-        <v>279.2121097143772</v>
+        <v>283.1864042025731</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.77443380478221</v>
+        <v>83.77443380478216</v>
       </c>
       <c r="T35" t="n">
         <v>199.03604613535</v>
@@ -3441,7 +3441,7 @@
         <v>165.525553994704</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3072997278744</v>
+        <v>140.3072997278743</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.43890183961371</v>
+        <v>34.49082125346289</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>197.2483620353485</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H38" t="n">
-        <v>279.2121097143772</v>
+        <v>283.1864042025731</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.77443380478221</v>
+        <v>83.77443380478216</v>
       </c>
       <c r="T38" t="n">
         <v>199.03604613535</v>
@@ -3562,7 +3562,7 @@
         <v>250.905953473387</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>323.7779639819415</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>81.59419338597722</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H40" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.43890183961371</v>
+        <v>66.43890183961368</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0509578340821</v>
       </c>
       <c r="T40" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>254.5749177504394</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>378.7595471752872</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>405.8322000963209</v>
+        <v>409.8064945845168</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1864042025732</v>
+        <v>283.1864042025731</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.77443380478221</v>
+        <v>83.77443380478216</v>
       </c>
       <c r="T41" t="n">
         <v>199.03604613535</v>
@@ -3915,10 +3915,10 @@
         <v>165.525553994704</v>
       </c>
       <c r="H43" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.30841035179635</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0509578340821</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U43" t="n">
-        <v>170.5939101393589</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>178.284908213801</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>405.8322000963209</v>
+        <v>409.8064945845168</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1864042025732</v>
+        <v>283.1864042025731</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.77443380478221</v>
+        <v>79.800139316589</v>
       </c>
       <c r="T44" t="n">
         <v>199.03604613535</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.44554955389663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.525553994704</v>
+        <v>54.13912336666411</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236.203140240072</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.203140240072</v>
+        <v>882.4984498491583</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>882.4984498491583</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>496.7101972509141</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>85.7242924613065</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>74.05994622599944</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>74.05994622599944</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2386.408070541086</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2386.408070541086</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2386.408070541086</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>2386.408070541086</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>2012.942312280006</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1622.802980304194</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="3">
@@ -4391,40 +4391,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2239.046898434118</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764878</v>
+        <v>783.0370443974457</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764878</v>
+        <v>614.1008614695388</v>
       </c>
       <c r="D4" t="n">
-        <v>53.04593830764878</v>
+        <v>614.1008614695388</v>
       </c>
       <c r="E4" t="n">
-        <v>53.04593830764878</v>
+        <v>466.1877678871457</v>
       </c>
       <c r="F4" t="n">
-        <v>53.04593830764878</v>
+        <v>319.2978203892353</v>
       </c>
       <c r="G4" t="n">
-        <v>53.04593830764878</v>
+        <v>151.3113556975139</v>
       </c>
       <c r="H4" t="n">
-        <v>53.04593830764878</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764878</v>
+        <v>1185.478088371216</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764878</v>
+        <v>964.6855092276854</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1713.412786206037</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1344.450269265626</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>986.1845706588754</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>600.3963180606311</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>189.4104132710235</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>177.7460670357165</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281609</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2305.667535674628</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V5" t="n">
-        <v>1974.604648331057</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W5" t="n">
-        <v>1621.835993060943</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.370234799863</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.370234799863</v>
+        <v>2100.012626270159</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>910.6959970014096</v>
+        <v>535.0593816855418</v>
       </c>
       <c r="C7" t="n">
-        <v>741.7598140735028</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D7" t="n">
-        <v>591.643174661167</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E7" t="n">
-        <v>443.7300810787739</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>296.8401335808635</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>128.8536688891421</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1454.90714659429</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1165.489976557329</v>
       </c>
       <c r="X7" t="n">
-        <v>1092.344461831649</v>
+        <v>937.5004256593116</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.344461831649</v>
+        <v>716.7078465157815</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181.996585635751</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="C8" t="n">
-        <v>1181.996585635751</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>1087.699884286399</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>701.9116316881543</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>290.9257268985468</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>279.2613806632397</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1572.135917611563</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1181.996585635751</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,16 +4871,16 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4898,10 +4898,10 @@
         <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2362.930966067699</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.8756322024072</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>346.8756322024072</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>346.8756322024072</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1072.625755275495</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>817.9412670696076</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>528.524097032647</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>528.524097032647</v>
+        <v>591.0921880517759</v>
       </c>
       <c r="Y10" t="n">
-        <v>528.524097032647</v>
+        <v>370.2996089082458</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796256</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C11" t="n">
-        <v>552.807938939214</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D11" t="n">
-        <v>364.0957168234162</v>
+        <v>950.1045973369974</v>
       </c>
       <c r="E11" t="n">
-        <v>364.0957168234162</v>
+        <v>564.3163447387531</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>153.3304399491455</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5077,16 +5077,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.7293032143256</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1647.321240915451</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C14" t="n">
-        <v>1278.358723975039</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,16 +5278,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W14" t="n">
-        <v>2797.526171216464</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.060412955384</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.921080979572</v>
+        <v>1888.09808975843</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5345,46 +5345,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>470.5862204338725</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>301.6500375059657</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>301.6500375059657</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>153.7369439235725</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>153.7369439235725</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>153.7369439235725</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>743.4945603335148</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>328.4221101785112</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5530,10 +5530,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>3215.315153136266</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X17" t="n">
-        <v>3079.909711953368</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y17" t="n">
-        <v>2689.770379977556</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>912.4415581410489</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C19" t="n">
-        <v>743.505375213142</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D19" t="n">
-        <v>593.3887358008062</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>593.3887358008062</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1228.073179902986</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971289</v>
+        <v>938.656009866025</v>
       </c>
       <c r="X19" t="n">
-        <v>1094.090022971289</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="Y19" t="n">
-        <v>1094.090022971289</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.569348694473</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.606831754061</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.606831754061</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>736.8185791558167</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>325.8326743662091</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,13 +5752,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3282.935430170792</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3282.935430170792</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3029.404953444628</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.5429342656</v>
+        <v>3029.404953444628</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995486</v>
+        <v>2676.636298174514</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.308520734406</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.169188758594</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1632.526226578143</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C22" t="n">
-        <v>1632.526226578143</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>1632.526226578143</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>1632.526226578143</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>1632.526226578143</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X22" t="n">
-        <v>1814.174691408382</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="Y22" t="n">
-        <v>1814.174691408382</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759165</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818753</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785212003</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613759</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7300667011141</v>
+        <v>789.7156278241512</v>
       </c>
       <c r="G23" t="n">
         <v>379.7841125753394</v>
       </c>
       <c r="H23" t="n">
-        <v>93.7372396434473</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I23" t="n">
-        <v>95.14107549557843</v>
+        <v>95.14107549557866</v>
       </c>
       <c r="J23" t="n">
-        <v>377.7275109623932</v>
+        <v>377.7275109623938</v>
       </c>
       <c r="K23" t="n">
-        <v>851.9898429966356</v>
+        <v>851.989842996637</v>
       </c>
       <c r="L23" t="n">
         <v>1477.255964887152</v>
       </c>
       <c r="M23" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.654438818163</v>
       </c>
       <c r="N23" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907902</v>
       </c>
       <c r="O23" t="n">
-        <v>3637.434109665872</v>
+        <v>3637.434109665875</v>
       </c>
       <c r="P23" t="n">
-        <v>4190.976381557455</v>
+        <v>4190.976381557459</v>
       </c>
       <c r="Q23" t="n">
-        <v>4558.490828317812</v>
+        <v>4558.490828317816</v>
       </c>
       <c r="R23" t="n">
-        <v>4686.861982172365</v>
+        <v>4686.861982172369</v>
       </c>
       <c r="S23" t="n">
-        <v>4602.241341965514</v>
+        <v>4602.241341965518</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717689</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673864</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330293</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060179</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799099</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823287</v>
       </c>
     </row>
     <row r="24">
@@ -6056,31 +6056,31 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F24" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345864</v>
       </c>
       <c r="G24" t="n">
-        <v>178.418045479447</v>
+        <v>178.4180454794471</v>
       </c>
       <c r="H24" t="n">
-        <v>93.7372396434473</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I24" t="n">
-        <v>93.7372396434473</v>
+        <v>95.44706852746428</v>
       </c>
       <c r="J24" t="n">
-        <v>243.2259377396011</v>
+        <v>244.9357666236181</v>
       </c>
       <c r="K24" t="n">
-        <v>282.4460454693136</v>
+        <v>578.5905866043848</v>
       </c>
       <c r="L24" t="n">
-        <v>777.4086676508375</v>
+        <v>1073.553208785909</v>
       </c>
       <c r="M24" t="n">
-        <v>1374.363570030288</v>
+        <v>1670.50811116536</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.52673729672</v>
+        <v>2297.671278431792</v>
       </c>
       <c r="O24" t="n">
         <v>2553.038713876677</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.644884957301</v>
+        <v>512.2893290164868</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7087020293943</v>
+        <v>343.3531460885799</v>
       </c>
       <c r="D25" t="n">
-        <v>779.5920626170586</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="E25" t="n">
-        <v>631.6789690346654</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="F25" t="n">
-        <v>484.7890215367551</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="G25" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I25" t="n">
-        <v>93.7372396434473</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="J25" t="n">
-        <v>173.8741688132295</v>
+        <v>173.8741688132297</v>
       </c>
       <c r="K25" t="n">
-        <v>435.4005972446801</v>
+        <v>435.4005972446804</v>
       </c>
       <c r="L25" t="n">
-        <v>825.5908198420041</v>
+        <v>825.5908198420045</v>
       </c>
       <c r="M25" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.38082395924</v>
       </c>
       <c r="N25" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947434</v>
       </c>
       <c r="O25" t="n">
-        <v>2033.907399583266</v>
+        <v>2033.907399583268</v>
       </c>
       <c r="P25" t="n">
-        <v>2326.413344610053</v>
+        <v>2326.413344610054</v>
       </c>
       <c r="Q25" t="n">
-        <v>2445.494219020783</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="R25" t="n">
-        <v>2445.494219020783</v>
+        <v>2378.384217162588</v>
       </c>
       <c r="S25" t="n">
-        <v>2262.614463632821</v>
+        <v>2195.504461774627</v>
       </c>
       <c r="T25" t="n">
-        <v>2262.614463632821</v>
+        <v>1975.896886787058</v>
       </c>
       <c r="U25" t="n">
-        <v>2262.614463632821</v>
+        <v>1686.821582131122</v>
       </c>
       <c r="V25" t="n">
-        <v>2007.929975426934</v>
+        <v>1432.137093925235</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.075479829088</v>
+        <v>1142.719923888274</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.085928931071</v>
+        <v>914.7303729902567</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.293349787541</v>
+        <v>693.9377938467265</v>
       </c>
     </row>
     <row r="26">
@@ -6220,43 +6220,43 @@
         <v>379.7841125753394</v>
       </c>
       <c r="H26" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I26" t="n">
-        <v>95.14107549557843</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J26" t="n">
-        <v>377.7275109623931</v>
+        <v>377.7275109623934</v>
       </c>
       <c r="K26" t="n">
-        <v>851.9898429966358</v>
+        <v>851.9898429966365</v>
       </c>
       <c r="L26" t="n">
-        <v>1477.255964887151</v>
+        <v>1477.255964887152</v>
       </c>
       <c r="M26" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.654438818163</v>
       </c>
       <c r="N26" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907902</v>
       </c>
       <c r="O26" t="n">
-        <v>3637.434109665873</v>
+        <v>3637.434109665874</v>
       </c>
       <c r="P26" t="n">
-        <v>4190.976381557456</v>
+        <v>4190.976381557458</v>
       </c>
       <c r="Q26" t="n">
-        <v>4558.490828317813</v>
+        <v>4558.490828317816</v>
       </c>
       <c r="R26" t="n">
-        <v>4686.861982172366</v>
+        <v>4686.861982172369</v>
       </c>
       <c r="S26" t="n">
-        <v>4602.241341965515</v>
+        <v>4602.241341965518</v>
       </c>
       <c r="T26" t="n">
-        <v>4401.194830717686</v>
+        <v>4401.194830717689</v>
       </c>
       <c r="U26" t="n">
         <v>4151.768912550827</v>
@@ -6293,37 +6293,37 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F27" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345864</v>
       </c>
       <c r="G27" t="n">
-        <v>178.418045479447</v>
+        <v>178.4180454794471</v>
       </c>
       <c r="H27" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I27" t="n">
-        <v>93.73723964344732</v>
+        <v>95.44706852746428</v>
       </c>
       <c r="J27" t="n">
-        <v>243.2259377396011</v>
+        <v>244.9357666236181</v>
       </c>
       <c r="K27" t="n">
-        <v>243.2259377396011</v>
+        <v>578.5905866043848</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2259377396011</v>
+        <v>1073.553208785909</v>
       </c>
       <c r="M27" t="n">
-        <v>840.1808401190515</v>
+        <v>1670.50811116536</v>
       </c>
       <c r="N27" t="n">
-        <v>1467.344007385484</v>
+        <v>2297.671278431792</v>
       </c>
       <c r="O27" t="n">
-        <v>2018.85598396544</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P27" t="n">
-        <v>2442.159901082314</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.038713876677</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.644884957301</v>
+        <v>512.2893290164868</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7087020293943</v>
+        <v>343.3531460885799</v>
       </c>
       <c r="D28" t="n">
-        <v>779.5920626170586</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="E28" t="n">
-        <v>631.6789690346654</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="F28" t="n">
-        <v>484.7890215367551</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="G28" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I28" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="J28" t="n">
-        <v>173.8741688132295</v>
+        <v>173.8741688132297</v>
       </c>
       <c r="K28" t="n">
-        <v>435.4005972446802</v>
+        <v>435.4005972446804</v>
       </c>
       <c r="L28" t="n">
-        <v>825.5908198420041</v>
+        <v>825.5908198420045</v>
       </c>
       <c r="M28" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.38082395924</v>
       </c>
       <c r="N28" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947434</v>
       </c>
       <c r="O28" t="n">
-        <v>2033.907399583266</v>
+        <v>2033.907399583268</v>
       </c>
       <c r="P28" t="n">
-        <v>2326.413344610053</v>
+        <v>2326.413344610054</v>
       </c>
       <c r="Q28" t="n">
-        <v>2445.494219020783</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="R28" t="n">
-        <v>2445.494219020783</v>
+        <v>2378.384217162588</v>
       </c>
       <c r="S28" t="n">
-        <v>2445.494219020783</v>
+        <v>2195.504461774627</v>
       </c>
       <c r="T28" t="n">
-        <v>2225.886644033214</v>
+        <v>1975.896886787058</v>
       </c>
       <c r="U28" t="n">
-        <v>2225.886644033214</v>
+        <v>1686.821582131122</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.492649866049</v>
+        <v>1432.137093925235</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.075479829088</v>
+        <v>1142.719923888274</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.085928931071</v>
+        <v>914.7303729902567</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.293349787541</v>
+        <v>693.9377938467265</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759165</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818753</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785212003</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613759</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7300667011141</v>
+        <v>789.7156278241512</v>
       </c>
       <c r="G29" t="n">
-        <v>379.7841125753394</v>
+        <v>375.7696736983766</v>
       </c>
       <c r="H29" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I29" t="n">
-        <v>95.14107549557843</v>
+        <v>95.1410754955786</v>
       </c>
       <c r="J29" t="n">
-        <v>377.7275109623932</v>
+        <v>377.7275109623935</v>
       </c>
       <c r="K29" t="n">
-        <v>851.9898429966365</v>
+        <v>851.989842996637</v>
       </c>
       <c r="L29" t="n">
         <v>1477.255964887152</v>
       </c>
       <c r="M29" t="n">
-        <v>2204.654438818162</v>
+        <v>2204.654438818164</v>
       </c>
       <c r="N29" t="n">
-        <v>2948.436788907901</v>
+        <v>2948.436788907903</v>
       </c>
       <c r="O29" t="n">
-        <v>3637.434109665873</v>
+        <v>3637.434109665875</v>
       </c>
       <c r="P29" t="n">
-        <v>4190.976381557456</v>
+        <v>4190.976381557459</v>
       </c>
       <c r="Q29" t="n">
-        <v>4558.490828317813</v>
+        <v>4558.490828317816</v>
       </c>
       <c r="R29" t="n">
-        <v>4686.861982172366</v>
+        <v>4686.861982172369</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965518</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717689</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673864</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330293</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060179</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799099</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823287</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F30" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345864</v>
       </c>
       <c r="G30" t="n">
-        <v>178.418045479447</v>
+        <v>178.4180454794471</v>
       </c>
       <c r="H30" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I30" t="n">
-        <v>93.73723964344732</v>
+        <v>95.44706852746428</v>
       </c>
       <c r="J30" t="n">
-        <v>243.2259377396011</v>
+        <v>244.9357666236181</v>
       </c>
       <c r="K30" t="n">
-        <v>576.8807577203677</v>
+        <v>578.5905866043848</v>
       </c>
       <c r="L30" t="n">
-        <v>1071.843379901892</v>
+        <v>1073.553208785909</v>
       </c>
       <c r="M30" t="n">
-        <v>1668.798282281342</v>
+        <v>1670.50811116536</v>
       </c>
       <c r="N30" t="n">
-        <v>2295.961449547774</v>
+        <v>2297.671278431792</v>
       </c>
       <c r="O30" t="n">
-        <v>2295.961449547774</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.038713876677</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.644884957301</v>
+        <v>560.7031555660831</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7087020293943</v>
+        <v>391.7669726381762</v>
       </c>
       <c r="D31" t="n">
-        <v>779.5920626170586</v>
+        <v>241.6503332258405</v>
       </c>
       <c r="E31" t="n">
-        <v>631.6789690346654</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.7890215367551</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I31" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="J31" t="n">
-        <v>173.8741688132295</v>
+        <v>173.8741688132297</v>
       </c>
       <c r="K31" t="n">
-        <v>435.4005972446802</v>
+        <v>435.4005972446804</v>
       </c>
       <c r="L31" t="n">
-        <v>825.5908198420041</v>
+        <v>825.5908198420045</v>
       </c>
       <c r="M31" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.38082395924</v>
       </c>
       <c r="N31" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947434</v>
       </c>
       <c r="O31" t="n">
-        <v>2033.907399583266</v>
+        <v>2033.907399583268</v>
       </c>
       <c r="P31" t="n">
-        <v>2326.413344610053</v>
+        <v>2326.413344610054</v>
       </c>
       <c r="Q31" t="n">
-        <v>2445.494219020783</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="R31" t="n">
-        <v>2445.494219020783</v>
+        <v>2426.798043712185</v>
       </c>
       <c r="S31" t="n">
-        <v>2262.614463632821</v>
+        <v>2243.918288324223</v>
       </c>
       <c r="T31" t="n">
-        <v>2262.614463632821</v>
+        <v>2024.310713336654</v>
       </c>
       <c r="U31" t="n">
-        <v>1973.539158976885</v>
+        <v>1735.235408680718</v>
       </c>
       <c r="V31" t="n">
-        <v>1718.854670770998</v>
+        <v>1480.550920474831</v>
       </c>
       <c r="W31" t="n">
-        <v>1718.854670770998</v>
+        <v>1191.13375043787</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.085928931071</v>
+        <v>963.1441995398529</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.293349787541</v>
+        <v>742.3516203963228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759165</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818753</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785212003</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613759</v>
       </c>
       <c r="F32" t="n">
         <v>793.7300667011141</v>
@@ -6694,58 +6694,58 @@
         <v>379.7841125753394</v>
       </c>
       <c r="H32" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I32" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J32" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623936</v>
       </c>
       <c r="K32" t="n">
-        <v>851.9898429966356</v>
+        <v>851.9898429966365</v>
       </c>
       <c r="L32" t="n">
-        <v>1477.255964887151</v>
+        <v>1477.255964887152</v>
       </c>
       <c r="M32" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.654438818163</v>
       </c>
       <c r="N32" t="n">
-        <v>2948.436788907899</v>
+        <v>2948.436788907902</v>
       </c>
       <c r="O32" t="n">
-        <v>3637.434109665871</v>
+        <v>3637.434109665875</v>
       </c>
       <c r="P32" t="n">
-        <v>4190.976381557455</v>
+        <v>4190.976381557459</v>
       </c>
       <c r="Q32" t="n">
-        <v>4558.490828317813</v>
+        <v>4558.490828317816</v>
       </c>
       <c r="R32" t="n">
-        <v>4686.861982172366</v>
+        <v>4686.861982172369</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965518</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717689</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673864</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330293</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060179</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799099</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823287</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F33" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345864</v>
       </c>
       <c r="G33" t="n">
-        <v>178.418045479447</v>
+        <v>178.4180454794471</v>
       </c>
       <c r="H33" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I33" t="n">
-        <v>93.73723964344732</v>
+        <v>95.44706852746428</v>
       </c>
       <c r="J33" t="n">
-        <v>243.2259377396011</v>
+        <v>244.9357666236181</v>
       </c>
       <c r="K33" t="n">
-        <v>243.2259377396011</v>
+        <v>578.5905866043848</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2259377396011</v>
+        <v>1073.553208785909</v>
       </c>
       <c r="M33" t="n">
-        <v>718.0113909292476</v>
+        <v>1670.50811116536</v>
       </c>
       <c r="N33" t="n">
-        <v>1345.17455819568</v>
+        <v>2297.671278431792</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.686534775636</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.99045189251</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.038713876677</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.644884957301</v>
+        <v>1016.515177531244</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7087020293943</v>
+        <v>847.5789946033375</v>
       </c>
       <c r="D34" t="n">
-        <v>779.5920626170586</v>
+        <v>697.4623551910017</v>
       </c>
       <c r="E34" t="n">
-        <v>631.6789690346654</v>
+        <v>549.5492616086086</v>
       </c>
       <c r="F34" t="n">
-        <v>484.7890215367551</v>
+        <v>402.6593141106982</v>
       </c>
       <c r="G34" t="n">
-        <v>317.5914922491753</v>
+        <v>235.4617848231184</v>
       </c>
       <c r="H34" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I34" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="J34" t="n">
-        <v>173.8741688132295</v>
+        <v>173.8741688132297</v>
       </c>
       <c r="K34" t="n">
-        <v>435.4005972446802</v>
+        <v>435.4005972446804</v>
       </c>
       <c r="L34" t="n">
-        <v>825.5908198420041</v>
+        <v>825.5908198420045</v>
       </c>
       <c r="M34" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.38082395924</v>
       </c>
       <c r="N34" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947434</v>
       </c>
       <c r="O34" t="n">
-        <v>2033.907399583266</v>
+        <v>2033.907399583268</v>
       </c>
       <c r="P34" t="n">
-        <v>2326.413344610053</v>
+        <v>2326.413344610054</v>
       </c>
       <c r="Q34" t="n">
-        <v>2445.494219020783</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="R34" t="n">
-        <v>2445.494219020783</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="S34" t="n">
-        <v>2445.494219020783</v>
+        <v>2262.614463632822</v>
       </c>
       <c r="T34" t="n">
-        <v>2225.886644033214</v>
+        <v>2043.006888645254</v>
       </c>
       <c r="U34" t="n">
-        <v>1936.811339377278</v>
+        <v>2043.006888645254</v>
       </c>
       <c r="V34" t="n">
-        <v>1682.126851171391</v>
+        <v>1788.322400439367</v>
       </c>
       <c r="W34" t="n">
-        <v>1392.70968113443</v>
+        <v>1498.905230402406</v>
       </c>
       <c r="X34" t="n">
-        <v>1164.720130236413</v>
+        <v>1270.915679504389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1164.720130236413</v>
+        <v>1198.163642361484</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2313.718000759162</v>
+        <v>2313.718000759165</v>
       </c>
       <c r="C35" t="n">
-        <v>1944.755483818751</v>
+        <v>1944.755483818753</v>
       </c>
       <c r="D35" t="n">
-        <v>1586.489785212</v>
+        <v>1586.489785212003</v>
       </c>
       <c r="E35" t="n">
-        <v>1200.701532613756</v>
+        <v>1200.701532613759</v>
       </c>
       <c r="F35" t="n">
-        <v>789.7156278241484</v>
+        <v>789.7156278241512</v>
       </c>
       <c r="G35" t="n">
-        <v>375.7696736983738</v>
+        <v>379.7841125753394</v>
       </c>
       <c r="H35" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I35" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J35" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623943</v>
       </c>
       <c r="K35" t="n">
-        <v>851.9898429966361</v>
+        <v>851.989842996637</v>
       </c>
       <c r="L35" t="n">
-        <v>1477.255964887151</v>
+        <v>1477.255964887154</v>
       </c>
       <c r="M35" t="n">
-        <v>2204.654438818162</v>
+        <v>2204.654438818164</v>
       </c>
       <c r="N35" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907903</v>
       </c>
       <c r="O35" t="n">
-        <v>3637.434109665873</v>
+        <v>3637.434109665875</v>
       </c>
       <c r="P35" t="n">
-        <v>4190.976381557456</v>
+        <v>4190.976381557459</v>
       </c>
       <c r="Q35" t="n">
-        <v>4558.490828317813</v>
+        <v>4558.490828317816</v>
       </c>
       <c r="R35" t="n">
-        <v>4686.861982172366</v>
+        <v>4686.861982172369</v>
       </c>
       <c r="S35" t="n">
-        <v>4602.241341965515</v>
+        <v>4602.241341965518</v>
       </c>
       <c r="T35" t="n">
-        <v>4401.194830717686</v>
+        <v>4401.194830717689</v>
       </c>
       <c r="U35" t="n">
-        <v>4147.754473673861</v>
+        <v>4147.754473673864</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.69158633029</v>
+        <v>3816.691586330293</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.922931060176</v>
+        <v>3463.922931060179</v>
       </c>
       <c r="X35" t="n">
-        <v>3090.457172799096</v>
+        <v>3090.457172799099</v>
       </c>
       <c r="Y35" t="n">
-        <v>2700.317840823284</v>
+        <v>2700.317840823287</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F36" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345864</v>
       </c>
       <c r="G36" t="n">
-        <v>178.418045479447</v>
+        <v>178.4180454794471</v>
       </c>
       <c r="H36" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I36" t="n">
-        <v>93.73723964344732</v>
+        <v>95.44706852746428</v>
       </c>
       <c r="J36" t="n">
-        <v>243.2259377396011</v>
+        <v>244.9357666236181</v>
       </c>
       <c r="K36" t="n">
-        <v>243.2259377396011</v>
+        <v>578.5905866043848</v>
       </c>
       <c r="L36" t="n">
-        <v>354.1047505339642</v>
+        <v>1073.553208785909</v>
       </c>
       <c r="M36" t="n">
-        <v>951.0596529134147</v>
+        <v>1670.50811116536</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.222820179847</v>
+        <v>2297.671278431792</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.734796759803</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P36" t="n">
         <v>2553.038713876677</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3257.882940682827</v>
+        <v>1016.515177531244</v>
       </c>
       <c r="C37" t="n">
-        <v>3088.94675775492</v>
+        <v>847.5789946033375</v>
       </c>
       <c r="D37" t="n">
-        <v>2938.830118342585</v>
+        <v>697.4623551910017</v>
       </c>
       <c r="E37" t="n">
-        <v>2790.917024760191</v>
+        <v>549.5492616086086</v>
       </c>
       <c r="F37" t="n">
-        <v>2644.027077262281</v>
+        <v>402.6593141106982</v>
       </c>
       <c r="G37" t="n">
-        <v>2476.829547974701</v>
+        <v>235.4617848231184</v>
       </c>
       <c r="H37" t="n">
-        <v>2335.10500279503</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I37" t="n">
-        <v>2335.10500279503</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="J37" t="n">
-        <v>2415.241931964812</v>
+        <v>173.8741688132297</v>
       </c>
       <c r="K37" t="n">
-        <v>2676.768360396263</v>
+        <v>435.4005972446804</v>
       </c>
       <c r="L37" t="n">
-        <v>3066.958582993587</v>
+        <v>825.5908198420045</v>
       </c>
       <c r="M37" t="n">
-        <v>3488.748587110822</v>
+        <v>1247.38082395924</v>
       </c>
       <c r="N37" t="n">
-        <v>3905.943984099017</v>
+        <v>1664.576220947434</v>
       </c>
       <c r="O37" t="n">
-        <v>4275.27516273485</v>
+        <v>2033.907399583268</v>
       </c>
       <c r="P37" t="n">
-        <v>4567.781107761636</v>
+        <v>2326.413344610054</v>
       </c>
       <c r="Q37" t="n">
-        <v>4686.861982172366</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="R37" t="n">
-        <v>4619.75198031417</v>
+        <v>2410.655005633448</v>
       </c>
       <c r="S37" t="n">
-        <v>4436.872224926208</v>
+        <v>2410.655005633448</v>
       </c>
       <c r="T37" t="n">
-        <v>4217.264649938639</v>
+        <v>2191.047430645879</v>
       </c>
       <c r="U37" t="n">
-        <v>3928.189345282703</v>
+        <v>2191.047430645879</v>
       </c>
       <c r="V37" t="n">
-        <v>3728.948575550028</v>
+        <v>1936.362942439992</v>
       </c>
       <c r="W37" t="n">
-        <v>3439.531405513067</v>
+        <v>1646.945772403031</v>
       </c>
       <c r="X37" t="n">
-        <v>3439.531405513067</v>
+        <v>1418.956221505014</v>
       </c>
       <c r="Y37" t="n">
-        <v>3439.531405513067</v>
+        <v>1198.163642361484</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2313.718000759162</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C38" t="n">
-        <v>1944.755483818751</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D38" t="n">
-        <v>1586.489785212</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E38" t="n">
-        <v>1200.701532613756</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F38" t="n">
-        <v>789.7156278241484</v>
+        <v>793.7300667011141</v>
       </c>
       <c r="G38" t="n">
-        <v>375.7696736983738</v>
+        <v>379.7841125753394</v>
       </c>
       <c r="H38" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I38" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J38" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623943</v>
       </c>
       <c r="K38" t="n">
-        <v>851.9898429966361</v>
+        <v>851.9898429966379</v>
       </c>
       <c r="L38" t="n">
-        <v>1477.255964887151</v>
+        <v>1477.255964887153</v>
       </c>
       <c r="M38" t="n">
-        <v>2204.654438818162</v>
+        <v>2204.654438818164</v>
       </c>
       <c r="N38" t="n">
-        <v>2948.4367889079</v>
+        <v>2948.436788907903</v>
       </c>
       <c r="O38" t="n">
-        <v>3637.434109665873</v>
+        <v>3637.434109665875</v>
       </c>
       <c r="P38" t="n">
-        <v>4190.976381557456</v>
+        <v>4190.976381557459</v>
       </c>
       <c r="Q38" t="n">
-        <v>4558.490828317813</v>
+        <v>4558.490828317816</v>
       </c>
       <c r="R38" t="n">
-        <v>4686.861982172366</v>
+        <v>4686.861982172369</v>
       </c>
       <c r="S38" t="n">
-        <v>4602.241341965515</v>
+        <v>4602.241341965518</v>
       </c>
       <c r="T38" t="n">
-        <v>4401.194830717686</v>
+        <v>4401.194830717689</v>
       </c>
       <c r="U38" t="n">
-        <v>4147.754473673861</v>
+        <v>4147.754473673864</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.69158633029</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.922931060176</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X38" t="n">
-        <v>3090.457172799096</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y38" t="n">
-        <v>2700.317840823284</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F39" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345864</v>
       </c>
       <c r="G39" t="n">
-        <v>178.418045479447</v>
+        <v>178.4180454794471</v>
       </c>
       <c r="H39" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I39" t="n">
-        <v>93.73723964344732</v>
+        <v>95.44706852746428</v>
       </c>
       <c r="J39" t="n">
-        <v>243.2259377396011</v>
+        <v>244.9357666236181</v>
       </c>
       <c r="K39" t="n">
-        <v>354.1047505339642</v>
+        <v>578.5905866043848</v>
       </c>
       <c r="L39" t="n">
-        <v>354.1047505339642</v>
+        <v>1073.553208785909</v>
       </c>
       <c r="M39" t="n">
-        <v>951.0596529134147</v>
+        <v>1670.50811116536</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.222820179847</v>
+        <v>2297.671278431792</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.734796759803</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P39" t="n">
         <v>2553.038713876677</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.515177531244</v>
+        <v>512.2893290164868</v>
       </c>
       <c r="C40" t="n">
-        <v>847.5789946033375</v>
+        <v>343.3531460885799</v>
       </c>
       <c r="D40" t="n">
-        <v>697.4623551910017</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="E40" t="n">
-        <v>549.5492616086086</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="F40" t="n">
-        <v>402.6593141106982</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="G40" t="n">
-        <v>235.4617848231184</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I40" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="J40" t="n">
-        <v>173.8741688132295</v>
+        <v>173.8741688132297</v>
       </c>
       <c r="K40" t="n">
-        <v>435.4005972446802</v>
+        <v>435.4005972446804</v>
       </c>
       <c r="L40" t="n">
-        <v>825.5908198420041</v>
+        <v>825.5908198420045</v>
       </c>
       <c r="M40" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.38082395924</v>
       </c>
       <c r="N40" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947434</v>
       </c>
       <c r="O40" t="n">
-        <v>2033.907399583266</v>
+        <v>2033.907399583268</v>
       </c>
       <c r="P40" t="n">
-        <v>2326.413344610053</v>
+        <v>2326.413344610054</v>
       </c>
       <c r="Q40" t="n">
-        <v>2445.494219020783</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="R40" t="n">
-        <v>2378.384217162587</v>
+        <v>2378.384217162588</v>
       </c>
       <c r="S40" t="n">
-        <v>2378.384217162587</v>
+        <v>2195.504461774627</v>
       </c>
       <c r="T40" t="n">
-        <v>2158.776642175019</v>
+        <v>1975.896886787058</v>
       </c>
       <c r="U40" t="n">
-        <v>2158.776642175019</v>
+        <v>1686.821582131122</v>
       </c>
       <c r="V40" t="n">
-        <v>1904.092153969132</v>
+        <v>1432.137093925235</v>
       </c>
       <c r="W40" t="n">
-        <v>1646.945772403031</v>
+        <v>1142.719923888274</v>
       </c>
       <c r="X40" t="n">
-        <v>1418.956221505014</v>
+        <v>914.7303729902567</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.163642361484</v>
+        <v>693.9377938467265</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2313.718000759162</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C41" t="n">
-        <v>1944.755483818751</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D41" t="n">
-        <v>1586.489785212</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E41" t="n">
-        <v>1200.701532613756</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F41" t="n">
-        <v>789.7156278241484</v>
+        <v>793.7300667011141</v>
       </c>
       <c r="G41" t="n">
         <v>379.7841125753394</v>
       </c>
       <c r="H41" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I41" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J41" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623938</v>
       </c>
       <c r="K41" t="n">
-        <v>851.9898429966365</v>
+        <v>851.989842996637</v>
       </c>
       <c r="L41" t="n">
         <v>1477.255964887152</v>
       </c>
       <c r="M41" t="n">
-        <v>2204.654438818162</v>
+        <v>2204.654438818163</v>
       </c>
       <c r="N41" t="n">
-        <v>2948.436788907901</v>
+        <v>2948.436788907902</v>
       </c>
       <c r="O41" t="n">
-        <v>3637.434109665873</v>
+        <v>3637.434109665875</v>
       </c>
       <c r="P41" t="n">
-        <v>4190.976381557456</v>
+        <v>4190.976381557459</v>
       </c>
       <c r="Q41" t="n">
-        <v>4558.490828317813</v>
+        <v>4558.490828317816</v>
       </c>
       <c r="R41" t="n">
-        <v>4686.861982172366</v>
+        <v>4686.861982172369</v>
       </c>
       <c r="S41" t="n">
-        <v>4602.241341965515</v>
+        <v>4602.241341965518</v>
       </c>
       <c r="T41" t="n">
-        <v>4401.194830717686</v>
+        <v>4401.194830717689</v>
       </c>
       <c r="U41" t="n">
-        <v>4147.754473673861</v>
+        <v>4147.754473673864</v>
       </c>
       <c r="V41" t="n">
-        <v>3816.69158633029</v>
+        <v>3816.691586330293</v>
       </c>
       <c r="W41" t="n">
-        <v>3463.922931060176</v>
+        <v>3463.922931060179</v>
       </c>
       <c r="X41" t="n">
-        <v>3090.457172799096</v>
+        <v>3090.457172799099</v>
       </c>
       <c r="Y41" t="n">
-        <v>2700.317840823284</v>
+        <v>2700.317840823287</v>
       </c>
     </row>
     <row r="42">
@@ -7478,31 +7478,31 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F42" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345864</v>
       </c>
       <c r="G42" t="n">
-        <v>178.418045479447</v>
+        <v>178.4180454794471</v>
       </c>
       <c r="H42" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I42" t="n">
-        <v>93.73723964344732</v>
+        <v>95.44706852746428</v>
       </c>
       <c r="J42" t="n">
-        <v>243.2259377396011</v>
+        <v>244.9357666236181</v>
       </c>
       <c r="K42" t="n">
-        <v>282.4460454693136</v>
+        <v>578.5905866043848</v>
       </c>
       <c r="L42" t="n">
-        <v>777.4086676508375</v>
+        <v>1073.553208785909</v>
       </c>
       <c r="M42" t="n">
-        <v>1374.363570030288</v>
+        <v>1670.50811116536</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.52673729672</v>
+        <v>2297.671278431792</v>
       </c>
       <c r="O42" t="n">
         <v>2553.038713876677</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3340.012648108884</v>
+        <v>874.7906323515733</v>
       </c>
       <c r="C43" t="n">
-        <v>3171.076465180977</v>
+        <v>705.8544494236664</v>
       </c>
       <c r="D43" t="n">
-        <v>3020.959825768642</v>
+        <v>555.7378100113307</v>
       </c>
       <c r="E43" t="n">
-        <v>2873.046732186248</v>
+        <v>407.8247164289376</v>
       </c>
       <c r="F43" t="n">
-        <v>2726.156784688338</v>
+        <v>260.9347689310272</v>
       </c>
       <c r="G43" t="n">
-        <v>2558.959255400758</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="H43" t="n">
-        <v>2417.234710221087</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I43" t="n">
-        <v>2335.10500279503</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="J43" t="n">
-        <v>2415.241931964812</v>
+        <v>173.8741688132297</v>
       </c>
       <c r="K43" t="n">
-        <v>2676.768360396263</v>
+        <v>435.4005972446804</v>
       </c>
       <c r="L43" t="n">
-        <v>3066.958582993587</v>
+        <v>825.5908198420045</v>
       </c>
       <c r="M43" t="n">
-        <v>3488.748587110822</v>
+        <v>1247.38082395924</v>
       </c>
       <c r="N43" t="n">
-        <v>3905.943984099017</v>
+        <v>1664.576220947434</v>
       </c>
       <c r="O43" t="n">
-        <v>4275.27516273485</v>
+        <v>2033.907399583268</v>
       </c>
       <c r="P43" t="n">
-        <v>4567.781107761636</v>
+        <v>2326.413344610054</v>
       </c>
       <c r="Q43" t="n">
-        <v>4686.861982172366</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="R43" t="n">
-        <v>4686.861982172366</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="S43" t="n">
-        <v>4686.861982172366</v>
+        <v>2262.614463632822</v>
       </c>
       <c r="T43" t="n">
-        <v>4686.861982172366</v>
+        <v>2043.006888645254</v>
       </c>
       <c r="U43" t="n">
-        <v>4514.544901223519</v>
+        <v>1753.931583989317</v>
       </c>
       <c r="V43" t="n">
-        <v>4259.860413017632</v>
+        <v>1573.845818116791</v>
       </c>
       <c r="W43" t="n">
-        <v>3970.443242980671</v>
+        <v>1284.42864807983</v>
       </c>
       <c r="X43" t="n">
-        <v>3742.453692082654</v>
+        <v>1056.439097181813</v>
       </c>
       <c r="Y43" t="n">
-        <v>3521.661112939124</v>
+        <v>1056.439097181813</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2313.718000759162</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C44" t="n">
-        <v>1944.755483818751</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D44" t="n">
-        <v>1586.489785212</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E44" t="n">
-        <v>1200.701532613756</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F44" t="n">
-        <v>789.7156278241484</v>
+        <v>793.7300667011141</v>
       </c>
       <c r="G44" t="n">
         <v>379.7841125753394</v>
       </c>
       <c r="H44" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I44" t="n">
-        <v>95.14107549557843</v>
+        <v>95.14107549557866</v>
       </c>
       <c r="J44" t="n">
-        <v>377.7275109623931</v>
+        <v>377.7275109623938</v>
       </c>
       <c r="K44" t="n">
-        <v>851.9898429966358</v>
+        <v>851.989842996637</v>
       </c>
       <c r="L44" t="n">
-        <v>1477.255964887151</v>
+        <v>1477.255964887152</v>
       </c>
       <c r="M44" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.654438818163</v>
       </c>
       <c r="N44" t="n">
-        <v>2948.436788907899</v>
+        <v>2948.436788907902</v>
       </c>
       <c r="O44" t="n">
-        <v>3637.434109665873</v>
+        <v>3637.434109665875</v>
       </c>
       <c r="P44" t="n">
-        <v>4190.976381557455</v>
+        <v>4190.976381557459</v>
       </c>
       <c r="Q44" t="n">
-        <v>4558.490828317813</v>
+        <v>4558.490828317816</v>
       </c>
       <c r="R44" t="n">
-        <v>4686.861982172366</v>
+        <v>4686.861982172369</v>
       </c>
       <c r="S44" t="n">
-        <v>4602.241341965515</v>
+        <v>4606.255780842481</v>
       </c>
       <c r="T44" t="n">
-        <v>4401.194830717686</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U44" t="n">
-        <v>4147.754473673861</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V44" t="n">
-        <v>3816.69158633029</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W44" t="n">
-        <v>3463.922931060176</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X44" t="n">
-        <v>3090.457172799096</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y44" t="n">
-        <v>2700.317840823284</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F45" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345864</v>
       </c>
       <c r="G45" t="n">
-        <v>178.418045479447</v>
+        <v>178.4180454794471</v>
       </c>
       <c r="H45" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I45" t="n">
-        <v>93.73723964344732</v>
+        <v>95.44706852746428</v>
       </c>
       <c r="J45" t="n">
-        <v>243.2259377396011</v>
+        <v>244.9357666236181</v>
       </c>
       <c r="K45" t="n">
-        <v>243.2259377396011</v>
+        <v>578.5905866043848</v>
       </c>
       <c r="L45" t="n">
-        <v>738.188559921125</v>
+        <v>1073.553208785909</v>
       </c>
       <c r="M45" t="n">
-        <v>1335.143462300575</v>
+        <v>1670.50811116536</v>
       </c>
       <c r="N45" t="n">
-        <v>1962.306629567007</v>
+        <v>2297.671278431792</v>
       </c>
       <c r="O45" t="n">
-        <v>2513.818606146964</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P45" t="n">
         <v>2553.038713876677</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.7906323515732</v>
+        <v>762.2790862626441</v>
       </c>
       <c r="C46" t="n">
-        <v>705.8544494236663</v>
+        <v>593.3429033347372</v>
       </c>
       <c r="D46" t="n">
-        <v>555.7378100113306</v>
+        <v>443.2262639224015</v>
       </c>
       <c r="E46" t="n">
-        <v>407.8247164289374</v>
+        <v>295.3131703400084</v>
       </c>
       <c r="F46" t="n">
-        <v>260.9347689310271</v>
+        <v>148.423222842098</v>
       </c>
       <c r="G46" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="I46" t="n">
-        <v>93.73723964344732</v>
+        <v>93.73723964344738</v>
       </c>
       <c r="J46" t="n">
-        <v>173.8741688132295</v>
+        <v>173.8741688132297</v>
       </c>
       <c r="K46" t="n">
-        <v>435.4005972446802</v>
+        <v>435.4005972446804</v>
       </c>
       <c r="L46" t="n">
-        <v>825.5908198420041</v>
+        <v>825.5908198420045</v>
       </c>
       <c r="M46" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.38082395924</v>
       </c>
       <c r="N46" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947434</v>
       </c>
       <c r="O46" t="n">
-        <v>2033.907399583266</v>
+        <v>2033.907399583268</v>
       </c>
       <c r="P46" t="n">
-        <v>2326.413344610053</v>
+        <v>2326.413344610054</v>
       </c>
       <c r="Q46" t="n">
-        <v>2445.494219020783</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="R46" t="n">
-        <v>2445.494219020783</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="S46" t="n">
-        <v>2445.494219020783</v>
+        <v>2445.494219020784</v>
       </c>
       <c r="T46" t="n">
-        <v>2225.886644033214</v>
+        <v>2225.886644033215</v>
       </c>
       <c r="U46" t="n">
-        <v>1936.811339377278</v>
+        <v>1936.811339377279</v>
       </c>
       <c r="V46" t="n">
-        <v>1682.126851171391</v>
+        <v>1682.126851171392</v>
       </c>
       <c r="W46" t="n">
-        <v>1392.70968113443</v>
+        <v>1392.709681134431</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.720130236413</v>
+        <v>1164.720130236414</v>
       </c>
       <c r="Y46" t="n">
-        <v>943.9275510928829</v>
+        <v>943.9275510928838</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>193.3273467878351</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>84.9418658837474</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>167.8579417260432</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>324.971585371661</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,7 +23433,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.99732345939697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>154.1943732987679</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>370.0125457369155</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>58.40243569784556</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>76.89380035138191</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23791,16 +23791,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>235.6797139073997</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>30.94643843118179</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>58.15861609783454</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>154.194373298768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>66.94407426418034</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>52.51544363394669</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>43.95425662944757</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.974294488193209</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.974294488196762</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>67.02127963223514</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.3072997278743</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.30841035179633</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.43890183961371</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>10.45704769472331</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.974294488196193</v>
+        <v>3.974294488193493</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.02127963223514</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.3072997278743</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.30841035179633</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.43890183961371</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>46.81758909833408</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.974294488193209</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.974294488195909</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.3072997278743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.30841035179633</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.43890183961371</v>
+        <v>47.92968828410035</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>10.11860096750934</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.974294488193323</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.974294488195909</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>114.4174873556166</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.30841035179633</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.43890183961371</v>
+        <v>66.43890183961368</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>146.5601365806193</v>
       </c>
     </row>
     <row r="35">
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.974294488193209</v>
       </c>
       <c r="H35" t="n">
-        <v>3.974294488195937</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.30841035179635</v>
+        <v>81.30841035179633</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>31.94808058615079</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0509578340821</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V37" t="n">
-        <v>54.88928128847948</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>3.974294488195937</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.974294488193379</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>67.02127963223514</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.3072997278743</v>
       </c>
       <c r="I40" t="n">
-        <v>81.30841035179635</v>
+        <v>81.30841035179633</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>31.94808058615158</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>3.974294488193379</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.974294488195881</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.3072997278743</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.30841035179633</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.43890183961371</v>
+        <v>66.43890183961368</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>115.590641470018</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>73.852735110027</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.974294488195881</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.974294488193166</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.3864306280407</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>111.3864306280399</v>
       </c>
       <c r="H46" t="n">
-        <v>140.3072997278744</v>
+        <v>140.3072997278743</v>
       </c>
       <c r="I46" t="n">
-        <v>81.30841035179635</v>
+        <v>81.30841035179633</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.43890183961371</v>
+        <v>66.43890183961368</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0509578340822</v>
+        <v>181.0509578340821</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956521.704926469</v>
+        <v>956521.7049264695</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956521.704926469</v>
+        <v>956521.7049264694</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956521.704926469</v>
+        <v>956521.7049264695</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>956521.704926469</v>
+        <v>956521.7049264694</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956521.704926469</v>
+        <v>956521.7049264695</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956521.7049264691</v>
+        <v>956521.7049264694</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956521.7049264692</v>
+        <v>956521.7049264694</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956521.7049264692</v>
+        <v>956521.7049264695</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26325,13 +26325,13 @@
         <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="G2" t="n">
         <v>392146.6638165589</v>
       </c>
       <c r="H2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="I2" t="n">
         <v>463906.3246079747</v>
@@ -26340,13 +26340,13 @@
         <v>463906.3246079747</v>
       </c>
       <c r="K2" t="n">
-        <v>463906.3246079748</v>
+        <v>463906.324607975</v>
       </c>
       <c r="L2" t="n">
         <v>463906.3246079747</v>
       </c>
       <c r="M2" t="n">
-        <v>463906.3246079748</v>
+        <v>463906.3246079747</v>
       </c>
       <c r="N2" t="n">
         <v>463906.3246079747</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>299319.5565061388</v>
+        <v>299319.5565061393</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>9336.684115502379</v>
       </c>
       <c r="J4" t="n">
-        <v>9336.684115502378</v>
+        <v>9336.684115502379</v>
       </c>
       <c r="K4" t="n">
         <v>9336.684115502379</v>
@@ -26453,13 +26453,13 @@
         <v>9336.684115502379</v>
       </c>
       <c r="N4" t="n">
-        <v>9336.684115502378</v>
+        <v>9336.684115502379</v>
       </c>
       <c r="O4" t="n">
         <v>9336.684115502379</v>
       </c>
       <c r="P4" t="n">
-        <v>9336.684115502378</v>
+        <v>9336.684115502379</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810301</v>
       </c>
       <c r="J5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810301</v>
       </c>
       <c r="K5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810301</v>
       </c>
       <c r="L5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810301</v>
       </c>
       <c r="M5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810301</v>
       </c>
       <c r="N5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810301</v>
       </c>
       <c r="O5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810301</v>
       </c>
       <c r="P5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810301</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872316.8120359036</v>
+        <v>-872316.8120359039</v>
       </c>
       <c r="C6" t="n">
-        <v>242434.9715400159</v>
+        <v>242434.971540016</v>
       </c>
       <c r="D6" t="n">
         <v>242434.9715400158</v>
       </c>
       <c r="E6" t="n">
-        <v>126606.8843008959</v>
+        <v>123130.6950028346</v>
       </c>
       <c r="F6" t="n">
-        <v>308679.8641180865</v>
+        <v>305203.6748200253</v>
       </c>
       <c r="G6" t="n">
-        <v>308679.8641180864</v>
+        <v>305203.6748200253</v>
       </c>
       <c r="H6" t="n">
-        <v>308679.8641180863</v>
+        <v>305203.6748200253</v>
       </c>
       <c r="I6" t="n">
-        <v>54205.03050530356</v>
+        <v>53848.82645904261</v>
       </c>
       <c r="J6" t="n">
-        <v>185919.4092014598</v>
+        <v>185563.2051551994</v>
       </c>
       <c r="K6" t="n">
-        <v>353524.5870114424</v>
+        <v>353168.3829651822</v>
       </c>
       <c r="L6" t="n">
-        <v>353524.5870114423</v>
+        <v>353168.3829651819</v>
       </c>
       <c r="M6" t="n">
-        <v>305972.3212180275</v>
+        <v>305616.117171767</v>
       </c>
       <c r="N6" t="n">
-        <v>353524.5870114423</v>
+        <v>353168.382965182</v>
       </c>
       <c r="O6" t="n">
-        <v>353524.5870114423</v>
+        <v>353168.382965182</v>
       </c>
       <c r="P6" t="n">
-        <v>353524.5870114423</v>
+        <v>353168.382965182</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26810,28 +26810,28 @@
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.715495543092</v>
       </c>
       <c r="J4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.715495543092</v>
       </c>
       <c r="K4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.715495543092</v>
       </c>
       <c r="L4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.715495543092</v>
       </c>
       <c r="M4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.715495543092</v>
       </c>
       <c r="N4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.715495543092</v>
       </c>
       <c r="O4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.715495543092</v>
       </c>
       <c r="P4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.715495543092</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>277.4137283979885</v>
+        <v>277.413728397989</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>340.3140401407985</v>
+        <v>340.3140401407994</v>
       </c>
       <c r="J4" t="n">
         <v>640.5848321000387</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>43.12488461105409</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>32.48623969975515</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>48.18758571691316</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0154349816514</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>175.7842648993691</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>203.5983603104233</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>70.42069565720128</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,16 +27833,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>72.41405957842287</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>140.9940170805916</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>66.42295118531075</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,13 +28061,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>143.4561493291376</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>15.69705846816302</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.496242930618235</v>
+        <v>5.496242930618236</v>
       </c>
       <c r="H23" t="n">
-        <v>56.288397913194</v>
+        <v>56.28839791319403</v>
       </c>
       <c r="I23" t="n">
-        <v>211.8939055826597</v>
+        <v>211.8939055826598</v>
       </c>
       <c r="J23" t="n">
-        <v>466.4867484325598</v>
+        <v>466.4867484325599</v>
       </c>
       <c r="K23" t="n">
-        <v>699.1427116856298</v>
+        <v>699.14271168563</v>
       </c>
       <c r="L23" t="n">
-        <v>867.3483562735378</v>
+        <v>867.348356273538</v>
       </c>
       <c r="M23" t="n">
-        <v>965.0921664909197</v>
+        <v>965.09216649092</v>
       </c>
       <c r="N23" t="n">
-        <v>980.7083667175389</v>
+        <v>980.7083667175392</v>
       </c>
       <c r="O23" t="n">
-        <v>926.0551010762038</v>
+        <v>926.0551010762041</v>
       </c>
       <c r="P23" t="n">
-        <v>790.3666037265659</v>
+        <v>790.3666037265663</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.5324037738003</v>
+        <v>593.5324037738004</v>
       </c>
       <c r="R23" t="n">
-        <v>345.2533699904479</v>
+        <v>345.2533699904481</v>
       </c>
       <c r="S23" t="n">
-        <v>125.2456357814631</v>
+        <v>125.2456357814632</v>
       </c>
       <c r="T23" t="n">
-        <v>24.05980342878133</v>
+        <v>24.05980342878134</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4396994344494586</v>
+        <v>0.4396994344494588</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.940749224622768</v>
+        <v>2.940749224622769</v>
       </c>
       <c r="H24" t="n">
-        <v>28.40144645885674</v>
+        <v>28.40144645885675</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J24" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K24" t="n">
-        <v>177.4577094084121</v>
+        <v>474.8665096620022</v>
       </c>
       <c r="L24" t="n">
-        <v>638.5166244076761</v>
+        <v>638.5166244076763</v>
       </c>
       <c r="M24" t="n">
-        <v>745.1187838002512</v>
+        <v>745.1187838002514</v>
       </c>
       <c r="N24" t="n">
-        <v>764.839860837305</v>
+        <v>764.8398608373052</v>
       </c>
       <c r="O24" t="n">
-        <v>699.6790490706635</v>
+        <v>400.5431489342272</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.62312704507638</v>
+        <v>54.62312704507639</v>
       </c>
       <c r="T24" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889616</v>
       </c>
       <c r="U24" t="n">
         <v>0.1934703437251822</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.465425363754779</v>
+        <v>2.46542536375478</v>
       </c>
       <c r="H25" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I25" t="n">
-        <v>74.14206457546193</v>
+        <v>74.14206457546196</v>
       </c>
       <c r="J25" t="n">
         <v>174.3055732174629</v>
@@ -32873,34 +32873,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L25" t="n">
-        <v>366.5415127167788</v>
+        <v>366.5415127167789</v>
       </c>
       <c r="M25" t="n">
-        <v>386.4666322474878</v>
+        <v>386.4666322474879</v>
       </c>
       <c r="N25" t="n">
-        <v>377.2773195280384</v>
+        <v>377.2773195280386</v>
       </c>
       <c r="O25" t="n">
-        <v>348.476668687812</v>
+        <v>348.4766686878122</v>
       </c>
       <c r="P25" t="n">
-        <v>298.1819912672142</v>
+        <v>298.1819912672144</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.4457547776843</v>
+        <v>206.4457547776844</v>
       </c>
       <c r="R25" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S25" t="n">
-        <v>42.96564020289009</v>
+        <v>42.96564020289011</v>
       </c>
       <c r="T25" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138973</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.496242930618235</v>
+        <v>5.496242930618236</v>
       </c>
       <c r="H26" t="n">
-        <v>56.288397913194</v>
+        <v>56.28839791319403</v>
       </c>
       <c r="I26" t="n">
-        <v>211.8939055826597</v>
+        <v>211.8939055826598</v>
       </c>
       <c r="J26" t="n">
-        <v>466.4867484325598</v>
+        <v>466.4867484325599</v>
       </c>
       <c r="K26" t="n">
-        <v>699.1427116856298</v>
+        <v>699.14271168563</v>
       </c>
       <c r="L26" t="n">
-        <v>867.3483562735378</v>
+        <v>867.348356273538</v>
       </c>
       <c r="M26" t="n">
-        <v>965.0921664909197</v>
+        <v>965.09216649092</v>
       </c>
       <c r="N26" t="n">
-        <v>980.7083667175389</v>
+        <v>980.7083667175392</v>
       </c>
       <c r="O26" t="n">
-        <v>926.0551010762038</v>
+        <v>926.0551010762041</v>
       </c>
       <c r="P26" t="n">
-        <v>790.3666037265659</v>
+        <v>790.3666037265663</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.5324037738003</v>
+        <v>593.5324037738004</v>
       </c>
       <c r="R26" t="n">
-        <v>345.2533699904479</v>
+        <v>345.2533699904481</v>
       </c>
       <c r="S26" t="n">
-        <v>125.2456357814631</v>
+        <v>125.2456357814632</v>
       </c>
       <c r="T26" t="n">
-        <v>24.05980342878133</v>
+        <v>24.05980342878134</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4396994344494586</v>
+        <v>0.4396994344494588</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.940749224622768</v>
+        <v>2.940749224622769</v>
       </c>
       <c r="H27" t="n">
-        <v>28.40144645885674</v>
+        <v>28.40144645885675</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J27" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620022</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.5166244076763</v>
       </c>
       <c r="M27" t="n">
-        <v>745.1187838002512</v>
+        <v>745.1187838002514</v>
       </c>
       <c r="N27" t="n">
-        <v>764.839860837305</v>
+        <v>764.8398608373052</v>
       </c>
       <c r="O27" t="n">
-        <v>699.6790490706635</v>
+        <v>400.5431489342272</v>
       </c>
       <c r="P27" t="n">
-        <v>561.5541216737986</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>251.9805748884085</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.62312704507638</v>
+        <v>54.62312704507639</v>
       </c>
       <c r="T27" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889616</v>
       </c>
       <c r="U27" t="n">
         <v>0.1934703437251822</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.465425363754779</v>
+        <v>2.46542536375478</v>
       </c>
       <c r="H28" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I28" t="n">
-        <v>74.14206457546193</v>
+        <v>74.14206457546196</v>
       </c>
       <c r="J28" t="n">
         <v>174.3055732174629</v>
@@ -33110,34 +33110,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L28" t="n">
-        <v>366.5415127167788</v>
+        <v>366.5415127167789</v>
       </c>
       <c r="M28" t="n">
-        <v>386.4666322474878</v>
+        <v>386.4666322474879</v>
       </c>
       <c r="N28" t="n">
-        <v>377.2773195280384</v>
+        <v>377.2773195280386</v>
       </c>
       <c r="O28" t="n">
-        <v>348.476668687812</v>
+        <v>348.4766686878122</v>
       </c>
       <c r="P28" t="n">
-        <v>298.1819912672142</v>
+        <v>298.1819912672144</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.4457547776843</v>
+        <v>206.4457547776844</v>
       </c>
       <c r="R28" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S28" t="n">
-        <v>42.96564020289009</v>
+        <v>42.96564020289011</v>
       </c>
       <c r="T28" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138973</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.496242930618235</v>
+        <v>5.496242930618236</v>
       </c>
       <c r="H29" t="n">
-        <v>56.288397913194</v>
+        <v>56.28839791319403</v>
       </c>
       <c r="I29" t="n">
-        <v>211.8939055826597</v>
+        <v>211.8939055826598</v>
       </c>
       <c r="J29" t="n">
-        <v>466.4867484325598</v>
+        <v>466.4867484325599</v>
       </c>
       <c r="K29" t="n">
-        <v>699.1427116856298</v>
+        <v>699.14271168563</v>
       </c>
       <c r="L29" t="n">
-        <v>867.3483562735378</v>
+        <v>867.348356273538</v>
       </c>
       <c r="M29" t="n">
-        <v>965.0921664909197</v>
+        <v>965.09216649092</v>
       </c>
       <c r="N29" t="n">
-        <v>980.7083667175389</v>
+        <v>980.7083667175392</v>
       </c>
       <c r="O29" t="n">
-        <v>926.0551010762038</v>
+        <v>926.0551010762041</v>
       </c>
       <c r="P29" t="n">
-        <v>790.3666037265659</v>
+        <v>790.3666037265663</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.5324037738003</v>
+        <v>593.5324037738004</v>
       </c>
       <c r="R29" t="n">
-        <v>345.2533699904479</v>
+        <v>345.2533699904481</v>
       </c>
       <c r="S29" t="n">
-        <v>125.2456357814631</v>
+        <v>125.2456357814632</v>
       </c>
       <c r="T29" t="n">
-        <v>24.05980342878133</v>
+        <v>24.05980342878134</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4396994344494586</v>
+        <v>0.4396994344494588</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.940749224622768</v>
+        <v>2.940749224622769</v>
       </c>
       <c r="H30" t="n">
-        <v>28.40144645885674</v>
+        <v>28.40144645885675</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J30" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K30" t="n">
-        <v>474.866509662002</v>
+        <v>474.8665096620022</v>
       </c>
       <c r="L30" t="n">
-        <v>638.5166244076761</v>
+        <v>638.5166244076763</v>
       </c>
       <c r="M30" t="n">
-        <v>745.1187838002512</v>
+        <v>745.1187838002514</v>
       </c>
       <c r="N30" t="n">
-        <v>764.839860837305</v>
+        <v>764.8398608373052</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5431489342272</v>
       </c>
       <c r="P30" t="n">
-        <v>158.2461269544676</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.3840589185133</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.62312704507638</v>
+        <v>54.62312704507639</v>
       </c>
       <c r="T30" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889616</v>
       </c>
       <c r="U30" t="n">
         <v>0.1934703437251822</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.465425363754779</v>
+        <v>2.46542536375478</v>
       </c>
       <c r="H31" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I31" t="n">
-        <v>74.14206457546193</v>
+        <v>74.14206457546196</v>
       </c>
       <c r="J31" t="n">
         <v>174.3055732174629</v>
@@ -33347,34 +33347,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L31" t="n">
-        <v>366.5415127167788</v>
+        <v>366.5415127167789</v>
       </c>
       <c r="M31" t="n">
-        <v>386.4666322474878</v>
+        <v>386.4666322474879</v>
       </c>
       <c r="N31" t="n">
-        <v>377.2773195280384</v>
+        <v>377.2773195280386</v>
       </c>
       <c r="O31" t="n">
-        <v>348.476668687812</v>
+        <v>348.4766686878122</v>
       </c>
       <c r="P31" t="n">
-        <v>298.1819912672142</v>
+        <v>298.1819912672144</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.4457547776843</v>
+        <v>206.4457547776844</v>
       </c>
       <c r="R31" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S31" t="n">
-        <v>42.96564020289009</v>
+        <v>42.96564020289011</v>
       </c>
       <c r="T31" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138973</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.496242930618235</v>
+        <v>5.496242930618236</v>
       </c>
       <c r="H32" t="n">
-        <v>56.288397913194</v>
+        <v>56.28839791319403</v>
       </c>
       <c r="I32" t="n">
-        <v>211.8939055826597</v>
+        <v>211.8939055826598</v>
       </c>
       <c r="J32" t="n">
-        <v>466.4867484325598</v>
+        <v>466.4867484325599</v>
       </c>
       <c r="K32" t="n">
-        <v>699.1427116856298</v>
+        <v>699.14271168563</v>
       </c>
       <c r="L32" t="n">
-        <v>867.3483562735378</v>
+        <v>867.348356273538</v>
       </c>
       <c r="M32" t="n">
-        <v>965.0921664909197</v>
+        <v>965.09216649092</v>
       </c>
       <c r="N32" t="n">
-        <v>980.7083667175389</v>
+        <v>980.7083667175392</v>
       </c>
       <c r="O32" t="n">
-        <v>926.0551010762038</v>
+        <v>926.0551010762041</v>
       </c>
       <c r="P32" t="n">
-        <v>790.3666037265659</v>
+        <v>790.3666037265663</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.5324037738003</v>
+        <v>593.5324037738004</v>
       </c>
       <c r="R32" t="n">
-        <v>345.2533699904479</v>
+        <v>345.2533699904481</v>
       </c>
       <c r="S32" t="n">
-        <v>125.2456357814631</v>
+        <v>125.2456357814632</v>
       </c>
       <c r="T32" t="n">
-        <v>24.05980342878133</v>
+        <v>24.05980342878134</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4396994344494586</v>
+        <v>0.4396994344494588</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.940749224622768</v>
+        <v>2.940749224622769</v>
       </c>
       <c r="H33" t="n">
-        <v>28.40144645885674</v>
+        <v>28.40144645885675</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J33" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620022</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.5166244076763</v>
       </c>
       <c r="M33" t="n">
-        <v>621.7152997701461</v>
+        <v>745.1187838002514</v>
       </c>
       <c r="N33" t="n">
-        <v>764.839860837305</v>
+        <v>764.8398608373052</v>
       </c>
       <c r="O33" t="n">
-        <v>699.6790490706635</v>
+        <v>400.5431489342272</v>
       </c>
       <c r="P33" t="n">
-        <v>561.5541216737986</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.3840589185133</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.62312704507638</v>
+        <v>54.62312704507639</v>
       </c>
       <c r="T33" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889616</v>
       </c>
       <c r="U33" t="n">
         <v>0.1934703437251822</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.465425363754779</v>
+        <v>2.46542536375478</v>
       </c>
       <c r="H34" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I34" t="n">
-        <v>74.14206457546193</v>
+        <v>74.14206457546196</v>
       </c>
       <c r="J34" t="n">
         <v>174.3055732174629</v>
@@ -33584,34 +33584,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L34" t="n">
-        <v>366.5415127167788</v>
+        <v>366.5415127167789</v>
       </c>
       <c r="M34" t="n">
-        <v>386.4666322474878</v>
+        <v>386.4666322474879</v>
       </c>
       <c r="N34" t="n">
-        <v>377.2773195280384</v>
+        <v>377.2773195280386</v>
       </c>
       <c r="O34" t="n">
-        <v>348.476668687812</v>
+        <v>348.4766686878122</v>
       </c>
       <c r="P34" t="n">
-        <v>298.1819912672142</v>
+        <v>298.1819912672144</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.4457547776843</v>
+        <v>206.4457547776844</v>
       </c>
       <c r="R34" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S34" t="n">
-        <v>42.96564020289009</v>
+        <v>42.96564020289011</v>
       </c>
       <c r="T34" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138973</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.496242930618235</v>
+        <v>5.496242930618236</v>
       </c>
       <c r="H35" t="n">
-        <v>56.288397913194</v>
+        <v>56.28839791319403</v>
       </c>
       <c r="I35" t="n">
-        <v>211.8939055826597</v>
+        <v>211.8939055826598</v>
       </c>
       <c r="J35" t="n">
-        <v>466.4867484325598</v>
+        <v>466.4867484325599</v>
       </c>
       <c r="K35" t="n">
-        <v>699.1427116856298</v>
+        <v>699.14271168563</v>
       </c>
       <c r="L35" t="n">
-        <v>867.3483562735378</v>
+        <v>867.348356273538</v>
       </c>
       <c r="M35" t="n">
-        <v>965.0921664909197</v>
+        <v>965.09216649092</v>
       </c>
       <c r="N35" t="n">
-        <v>980.7083667175389</v>
+        <v>980.7083667175392</v>
       </c>
       <c r="O35" t="n">
-        <v>926.0551010762038</v>
+        <v>926.0551010762041</v>
       </c>
       <c r="P35" t="n">
-        <v>790.3666037265659</v>
+        <v>790.3666037265663</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.5324037738003</v>
+        <v>593.5324037738004</v>
       </c>
       <c r="R35" t="n">
-        <v>345.2533699904479</v>
+        <v>345.2533699904481</v>
       </c>
       <c r="S35" t="n">
-        <v>125.2456357814631</v>
+        <v>125.2456357814632</v>
       </c>
       <c r="T35" t="n">
-        <v>24.05980342878133</v>
+        <v>24.05980342878134</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4396994344494586</v>
+        <v>0.4396994344494588</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.940749224622768</v>
+        <v>2.940749224622769</v>
       </c>
       <c r="H36" t="n">
-        <v>28.40144645885674</v>
+        <v>28.40144645885675</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J36" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620022</v>
       </c>
       <c r="L36" t="n">
-        <v>250.5531805822612</v>
+        <v>638.5166244076763</v>
       </c>
       <c r="M36" t="n">
-        <v>745.1187838002512</v>
+        <v>745.1187838002514</v>
       </c>
       <c r="N36" t="n">
-        <v>764.839860837305</v>
+        <v>764.8398608373052</v>
       </c>
       <c r="O36" t="n">
-        <v>699.6790490706635</v>
+        <v>400.5431489342272</v>
       </c>
       <c r="P36" t="n">
-        <v>561.5541216737986</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.62312704507638</v>
+        <v>54.62312704507639</v>
       </c>
       <c r="T36" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889616</v>
       </c>
       <c r="U36" t="n">
         <v>0.1934703437251822</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.465425363754779</v>
+        <v>2.46542536375478</v>
       </c>
       <c r="H37" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I37" t="n">
-        <v>74.14206457546193</v>
+        <v>74.14206457546196</v>
       </c>
       <c r="J37" t="n">
         <v>174.3055732174629</v>
@@ -33821,34 +33821,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L37" t="n">
-        <v>366.5415127167788</v>
+        <v>366.5415127167789</v>
       </c>
       <c r="M37" t="n">
-        <v>386.4666322474878</v>
+        <v>386.4666322474879</v>
       </c>
       <c r="N37" t="n">
-        <v>377.2773195280384</v>
+        <v>377.2773195280386</v>
       </c>
       <c r="O37" t="n">
-        <v>348.476668687812</v>
+        <v>348.4766686878122</v>
       </c>
       <c r="P37" t="n">
-        <v>298.1819912672142</v>
+        <v>298.1819912672144</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.4457547776843</v>
+        <v>206.4457547776844</v>
       </c>
       <c r="R37" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S37" t="n">
-        <v>42.96564020289009</v>
+        <v>42.96564020289011</v>
       </c>
       <c r="T37" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138973</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.496242930618235</v>
+        <v>5.496242930618236</v>
       </c>
       <c r="H38" t="n">
-        <v>56.288397913194</v>
+        <v>56.28839791319403</v>
       </c>
       <c r="I38" t="n">
-        <v>211.8939055826597</v>
+        <v>211.8939055826598</v>
       </c>
       <c r="J38" t="n">
-        <v>466.4867484325598</v>
+        <v>466.4867484325599</v>
       </c>
       <c r="K38" t="n">
-        <v>699.1427116856298</v>
+        <v>699.14271168563</v>
       </c>
       <c r="L38" t="n">
-        <v>867.3483562735378</v>
+        <v>867.348356273538</v>
       </c>
       <c r="M38" t="n">
-        <v>965.0921664909197</v>
+        <v>965.09216649092</v>
       </c>
       <c r="N38" t="n">
-        <v>980.7083667175389</v>
+        <v>980.7083667175392</v>
       </c>
       <c r="O38" t="n">
-        <v>926.0551010762038</v>
+        <v>926.0551010762041</v>
       </c>
       <c r="P38" t="n">
-        <v>790.3666037265659</v>
+        <v>790.3666037265663</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.5324037738003</v>
+        <v>593.5324037738004</v>
       </c>
       <c r="R38" t="n">
-        <v>345.2533699904479</v>
+        <v>345.2533699904481</v>
       </c>
       <c r="S38" t="n">
-        <v>125.2456357814631</v>
+        <v>125.2456357814632</v>
       </c>
       <c r="T38" t="n">
-        <v>24.05980342878133</v>
+        <v>24.05980342878134</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4396994344494586</v>
+        <v>0.4396994344494588</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.940749224622768</v>
+        <v>2.940749224622769</v>
       </c>
       <c r="H39" t="n">
-        <v>28.40144645885674</v>
+        <v>28.40144645885675</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J39" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K39" t="n">
-        <v>249.840239776746</v>
+        <v>474.8665096620022</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.5166244076763</v>
       </c>
       <c r="M39" t="n">
-        <v>745.1187838002512</v>
+        <v>745.1187838002514</v>
       </c>
       <c r="N39" t="n">
-        <v>764.839860837305</v>
+        <v>764.8398608373052</v>
       </c>
       <c r="O39" t="n">
-        <v>699.6790490706635</v>
+        <v>400.5431489342272</v>
       </c>
       <c r="P39" t="n">
-        <v>561.5541216737986</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.62312704507638</v>
+        <v>54.62312704507639</v>
       </c>
       <c r="T39" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889616</v>
       </c>
       <c r="U39" t="n">
         <v>0.1934703437251822</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.465425363754779</v>
+        <v>2.46542536375478</v>
       </c>
       <c r="H40" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I40" t="n">
-        <v>74.14206457546193</v>
+        <v>74.14206457546196</v>
       </c>
       <c r="J40" t="n">
         <v>174.3055732174629</v>
@@ -34058,34 +34058,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L40" t="n">
-        <v>366.5415127167788</v>
+        <v>366.5415127167789</v>
       </c>
       <c r="M40" t="n">
-        <v>386.4666322474878</v>
+        <v>386.4666322474879</v>
       </c>
       <c r="N40" t="n">
-        <v>377.2773195280384</v>
+        <v>377.2773195280386</v>
       </c>
       <c r="O40" t="n">
-        <v>348.476668687812</v>
+        <v>348.4766686878122</v>
       </c>
       <c r="P40" t="n">
-        <v>298.1819912672142</v>
+        <v>298.1819912672144</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.4457547776843</v>
+        <v>206.4457547776844</v>
       </c>
       <c r="R40" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S40" t="n">
-        <v>42.96564020289009</v>
+        <v>42.96564020289011</v>
       </c>
       <c r="T40" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138973</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.496242930618235</v>
+        <v>5.496242930618236</v>
       </c>
       <c r="H41" t="n">
-        <v>56.288397913194</v>
+        <v>56.28839791319403</v>
       </c>
       <c r="I41" t="n">
-        <v>211.8939055826597</v>
+        <v>211.8939055826598</v>
       </c>
       <c r="J41" t="n">
-        <v>466.4867484325598</v>
+        <v>466.4867484325599</v>
       </c>
       <c r="K41" t="n">
-        <v>699.1427116856298</v>
+        <v>699.14271168563</v>
       </c>
       <c r="L41" t="n">
-        <v>867.3483562735378</v>
+        <v>867.348356273538</v>
       </c>
       <c r="M41" t="n">
-        <v>965.0921664909197</v>
+        <v>965.09216649092</v>
       </c>
       <c r="N41" t="n">
-        <v>980.7083667175389</v>
+        <v>980.7083667175392</v>
       </c>
       <c r="O41" t="n">
-        <v>926.0551010762038</v>
+        <v>926.0551010762041</v>
       </c>
       <c r="P41" t="n">
-        <v>790.3666037265659</v>
+        <v>790.3666037265663</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.5324037738003</v>
+        <v>593.5324037738004</v>
       </c>
       <c r="R41" t="n">
-        <v>345.2533699904479</v>
+        <v>345.2533699904481</v>
       </c>
       <c r="S41" t="n">
-        <v>125.2456357814631</v>
+        <v>125.2456357814632</v>
       </c>
       <c r="T41" t="n">
-        <v>24.05980342878133</v>
+        <v>24.05980342878134</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4396994344494586</v>
+        <v>0.4396994344494588</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.940749224622768</v>
+        <v>2.940749224622769</v>
       </c>
       <c r="H42" t="n">
-        <v>28.40144645885674</v>
+        <v>28.40144645885675</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J42" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K42" t="n">
-        <v>177.4577094084121</v>
+        <v>474.8665096620022</v>
       </c>
       <c r="L42" t="n">
-        <v>638.5166244076761</v>
+        <v>638.5166244076763</v>
       </c>
       <c r="M42" t="n">
-        <v>745.1187838002512</v>
+        <v>745.1187838002514</v>
       </c>
       <c r="N42" t="n">
-        <v>764.839860837305</v>
+        <v>764.8398608373052</v>
       </c>
       <c r="O42" t="n">
-        <v>699.6790490706635</v>
+        <v>400.5431489342272</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.62312704507638</v>
+        <v>54.62312704507639</v>
       </c>
       <c r="T42" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889616</v>
       </c>
       <c r="U42" t="n">
         <v>0.1934703437251822</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.465425363754779</v>
+        <v>2.46542536375478</v>
       </c>
       <c r="H43" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I43" t="n">
-        <v>74.14206457546193</v>
+        <v>74.14206457546196</v>
       </c>
       <c r="J43" t="n">
         <v>174.3055732174629</v>
@@ -34295,34 +34295,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L43" t="n">
-        <v>366.5415127167788</v>
+        <v>366.5415127167789</v>
       </c>
       <c r="M43" t="n">
-        <v>386.4666322474878</v>
+        <v>386.4666322474879</v>
       </c>
       <c r="N43" t="n">
-        <v>377.2773195280384</v>
+        <v>377.2773195280386</v>
       </c>
       <c r="O43" t="n">
-        <v>348.476668687812</v>
+        <v>348.4766686878122</v>
       </c>
       <c r="P43" t="n">
-        <v>298.1819912672142</v>
+        <v>298.1819912672144</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.4457547776843</v>
+        <v>206.4457547776844</v>
       </c>
       <c r="R43" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S43" t="n">
-        <v>42.96564020289009</v>
+        <v>42.96564020289011</v>
       </c>
       <c r="T43" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138973</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.496242930618235</v>
+        <v>5.496242930618236</v>
       </c>
       <c r="H44" t="n">
-        <v>56.288397913194</v>
+        <v>56.28839791319403</v>
       </c>
       <c r="I44" t="n">
-        <v>211.8939055826597</v>
+        <v>211.8939055826598</v>
       </c>
       <c r="J44" t="n">
-        <v>466.4867484325598</v>
+        <v>466.4867484325599</v>
       </c>
       <c r="K44" t="n">
-        <v>699.1427116856298</v>
+        <v>699.14271168563</v>
       </c>
       <c r="L44" t="n">
-        <v>867.3483562735378</v>
+        <v>867.348356273538</v>
       </c>
       <c r="M44" t="n">
-        <v>965.0921664909197</v>
+        <v>965.09216649092</v>
       </c>
       <c r="N44" t="n">
-        <v>980.7083667175389</v>
+        <v>980.7083667175392</v>
       </c>
       <c r="O44" t="n">
-        <v>926.0551010762038</v>
+        <v>926.0551010762041</v>
       </c>
       <c r="P44" t="n">
-        <v>790.3666037265659</v>
+        <v>790.3666037265663</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.5324037738003</v>
+        <v>593.5324037738004</v>
       </c>
       <c r="R44" t="n">
-        <v>345.2533699904479</v>
+        <v>345.2533699904481</v>
       </c>
       <c r="S44" t="n">
-        <v>125.2456357814631</v>
+        <v>125.2456357814632</v>
       </c>
       <c r="T44" t="n">
-        <v>24.05980342878133</v>
+        <v>24.05980342878134</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4396994344494586</v>
+        <v>0.4396994344494588</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.940749224622768</v>
+        <v>2.940749224622769</v>
       </c>
       <c r="H45" t="n">
-        <v>28.40144645885674</v>
+        <v>28.40144645885675</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J45" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620022</v>
       </c>
       <c r="L45" t="n">
-        <v>638.5166244076761</v>
+        <v>638.5166244076763</v>
       </c>
       <c r="M45" t="n">
-        <v>745.1187838002512</v>
+        <v>745.1187838002514</v>
       </c>
       <c r="N45" t="n">
-        <v>764.839860837305</v>
+        <v>764.8398608373052</v>
       </c>
       <c r="O45" t="n">
-        <v>699.6790490706635</v>
+        <v>400.5431489342272</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5906778483835</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.62312704507638</v>
+        <v>54.62312704507639</v>
       </c>
       <c r="T45" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889616</v>
       </c>
       <c r="U45" t="n">
         <v>0.1934703437251822</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.465425363754779</v>
+        <v>2.46542536375478</v>
       </c>
       <c r="H46" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I46" t="n">
-        <v>74.14206457546193</v>
+        <v>74.14206457546196</v>
       </c>
       <c r="J46" t="n">
         <v>174.3055732174629</v>
@@ -34532,34 +34532,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L46" t="n">
-        <v>366.5415127167788</v>
+        <v>366.5415127167789</v>
       </c>
       <c r="M46" t="n">
-        <v>386.4666322474878</v>
+        <v>386.4666322474879</v>
       </c>
       <c r="N46" t="n">
-        <v>377.2773195280384</v>
+        <v>377.2773195280386</v>
       </c>
       <c r="O46" t="n">
-        <v>348.476668687812</v>
+        <v>348.4766686878122</v>
       </c>
       <c r="P46" t="n">
-        <v>298.1819912672142</v>
+        <v>298.1819912672144</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.4457547776843</v>
+        <v>206.4457547776844</v>
       </c>
       <c r="R46" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S46" t="n">
-        <v>42.96564020289009</v>
+        <v>42.96564020289011</v>
       </c>
       <c r="T46" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138973</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0068759113673</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>528.7520287839581</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>201.4225882146019</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.418016012253759</v>
+        <v>1.418016012253844</v>
       </c>
       <c r="J23" t="n">
-        <v>285.4408439058735</v>
+        <v>285.4408439058736</v>
       </c>
       <c r="K23" t="n">
-        <v>479.0528606406493</v>
+        <v>479.0528606406495</v>
       </c>
       <c r="L23" t="n">
-        <v>631.5819413035506</v>
+        <v>631.5819413035508</v>
       </c>
       <c r="M23" t="n">
-        <v>734.745933263647</v>
+        <v>734.7459332636473</v>
       </c>
       <c r="N23" t="n">
-        <v>751.2953031209479</v>
+        <v>751.2953031209483</v>
       </c>
       <c r="O23" t="n">
-        <v>695.956889654517</v>
+        <v>695.9568896545173</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1336079712964</v>
+        <v>559.1336079712967</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.2267138993508</v>
+        <v>371.2267138993509</v>
       </c>
       <c r="R23" t="n">
-        <v>129.6678321763158</v>
+        <v>129.667832176316</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.727099882845351</v>
       </c>
       <c r="J24" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K24" t="n">
-        <v>39.61627043405307</v>
+        <v>337.0250706876432</v>
       </c>
       <c r="L24" t="n">
-        <v>499.9622446278019</v>
+        <v>499.9622446278021</v>
       </c>
       <c r="M24" t="n">
-        <v>602.9847498782328</v>
+        <v>602.9847498782331</v>
       </c>
       <c r="N24" t="n">
-        <v>633.4981487539717</v>
+        <v>633.4981487539719</v>
       </c>
       <c r="O24" t="n">
-        <v>557.0828046262191</v>
+        <v>257.9469044897828</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.94639310079012</v>
+        <v>80.94639310079017</v>
       </c>
       <c r="K25" t="n">
-        <v>264.1681095267178</v>
+        <v>264.1681095267179</v>
       </c>
       <c r="L25" t="n">
-        <v>394.1315379770949</v>
+        <v>394.131537977095</v>
       </c>
       <c r="M25" t="n">
-        <v>426.0505092093284</v>
+        <v>426.0505092093285</v>
       </c>
       <c r="N25" t="n">
-        <v>421.409491907267</v>
+        <v>421.4094919072671</v>
       </c>
       <c r="O25" t="n">
-        <v>373.0617966018517</v>
+        <v>373.0617966018518</v>
       </c>
       <c r="P25" t="n">
-        <v>295.4605505321077</v>
+        <v>295.4605505321078</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.2837115259899</v>
+        <v>120.28371152599</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.418016012253759</v>
+        <v>1.418016012253844</v>
       </c>
       <c r="J26" t="n">
-        <v>285.4408439058735</v>
+        <v>285.4408439058736</v>
       </c>
       <c r="K26" t="n">
-        <v>479.0528606406493</v>
+        <v>479.0528606406495</v>
       </c>
       <c r="L26" t="n">
-        <v>631.5819413035506</v>
+        <v>631.5819413035508</v>
       </c>
       <c r="M26" t="n">
-        <v>734.745933263647</v>
+        <v>734.7459332636473</v>
       </c>
       <c r="N26" t="n">
-        <v>751.2953031209479</v>
+        <v>751.2953031209483</v>
       </c>
       <c r="O26" t="n">
-        <v>695.956889654517</v>
+        <v>695.9568896545173</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1336079712964</v>
+        <v>559.1336079712967</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.2267138993508</v>
+        <v>371.2267138993509</v>
       </c>
       <c r="R26" t="n">
-        <v>129.6678321763158</v>
+        <v>129.667832176316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.727099882845351</v>
       </c>
       <c r="J27" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.0250706876432</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>499.9622446278021</v>
       </c>
       <c r="M27" t="n">
-        <v>602.9847498782328</v>
+        <v>602.9847498782331</v>
       </c>
       <c r="N27" t="n">
-        <v>633.4981487539717</v>
+        <v>633.4981487539719</v>
       </c>
       <c r="O27" t="n">
-        <v>557.0828046262191</v>
+        <v>257.9469044897828</v>
       </c>
       <c r="P27" t="n">
-        <v>427.5797142594683</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.9988008023869</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.94639310079012</v>
+        <v>80.94639310079017</v>
       </c>
       <c r="K28" t="n">
-        <v>264.1681095267178</v>
+        <v>264.1681095267179</v>
       </c>
       <c r="L28" t="n">
-        <v>394.1315379770949</v>
+        <v>394.131537977095</v>
       </c>
       <c r="M28" t="n">
-        <v>426.0505092093284</v>
+        <v>426.0505092093285</v>
       </c>
       <c r="N28" t="n">
-        <v>421.409491907267</v>
+        <v>421.4094919072671</v>
       </c>
       <c r="O28" t="n">
-        <v>373.0617966018517</v>
+        <v>373.0617966018518</v>
       </c>
       <c r="P28" t="n">
-        <v>295.4605505321077</v>
+        <v>295.4605505321078</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.2837115259899</v>
+        <v>120.28371152599</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.418016012253759</v>
+        <v>1.418016012253844</v>
       </c>
       <c r="J29" t="n">
-        <v>285.4408439058735</v>
+        <v>285.4408439058736</v>
       </c>
       <c r="K29" t="n">
-        <v>479.0528606406493</v>
+        <v>479.0528606406495</v>
       </c>
       <c r="L29" t="n">
-        <v>631.5819413035506</v>
+        <v>631.5819413035508</v>
       </c>
       <c r="M29" t="n">
-        <v>734.745933263647</v>
+        <v>734.7459332636473</v>
       </c>
       <c r="N29" t="n">
-        <v>751.2953031209479</v>
+        <v>751.2953031209483</v>
       </c>
       <c r="O29" t="n">
-        <v>695.956889654517</v>
+        <v>695.9568896545173</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1336079712964</v>
+        <v>559.1336079712967</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.2267138993508</v>
+        <v>371.2267138993509</v>
       </c>
       <c r="R29" t="n">
-        <v>129.6678321763158</v>
+        <v>129.667832176316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.727099882845351</v>
       </c>
       <c r="J30" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K30" t="n">
-        <v>337.025070687643</v>
+        <v>337.0250706876432</v>
       </c>
       <c r="L30" t="n">
-        <v>499.9622446278019</v>
+        <v>499.9622446278021</v>
       </c>
       <c r="M30" t="n">
-        <v>602.9847498782328</v>
+        <v>602.9847498782331</v>
       </c>
       <c r="N30" t="n">
-        <v>633.4981487539717</v>
+        <v>633.4981487539719</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9469044897828</v>
       </c>
       <c r="P30" t="n">
-        <v>24.27171954013737</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.4022848324918</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.94639310079012</v>
+        <v>80.94639310079017</v>
       </c>
       <c r="K31" t="n">
-        <v>264.1681095267178</v>
+        <v>264.1681095267179</v>
       </c>
       <c r="L31" t="n">
-        <v>394.1315379770949</v>
+        <v>394.131537977095</v>
       </c>
       <c r="M31" t="n">
-        <v>426.0505092093284</v>
+        <v>426.0505092093285</v>
       </c>
       <c r="N31" t="n">
-        <v>421.409491907267</v>
+        <v>421.4094919072671</v>
       </c>
       <c r="O31" t="n">
-        <v>373.0617966018517</v>
+        <v>373.0617966018518</v>
       </c>
       <c r="P31" t="n">
-        <v>295.4605505321077</v>
+        <v>295.4605505321078</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.2837115259899</v>
+        <v>120.28371152599</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.418016012253759</v>
+        <v>1.418016012253844</v>
       </c>
       <c r="J32" t="n">
-        <v>285.4408439058735</v>
+        <v>285.4408439058736</v>
       </c>
       <c r="K32" t="n">
-        <v>479.0528606406493</v>
+        <v>479.0528606406495</v>
       </c>
       <c r="L32" t="n">
-        <v>631.5819413035506</v>
+        <v>631.5819413035508</v>
       </c>
       <c r="M32" t="n">
-        <v>734.745933263647</v>
+        <v>734.7459332636473</v>
       </c>
       <c r="N32" t="n">
-        <v>751.2953031209479</v>
+        <v>751.2953031209483</v>
       </c>
       <c r="O32" t="n">
-        <v>695.956889654517</v>
+        <v>695.9568896545173</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1336079712964</v>
+        <v>559.1336079712967</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.2267138993508</v>
+        <v>371.2267138993509</v>
       </c>
       <c r="R32" t="n">
-        <v>129.6678321763158</v>
+        <v>129.667832176316</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.727099882845351</v>
       </c>
       <c r="J33" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.0250706876432</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>499.9622446278021</v>
       </c>
       <c r="M33" t="n">
-        <v>479.5812658481278</v>
+        <v>602.9847498782331</v>
       </c>
       <c r="N33" t="n">
-        <v>633.4981487539717</v>
+        <v>633.4981487539719</v>
       </c>
       <c r="O33" t="n">
-        <v>557.0828046262191</v>
+        <v>257.9469044897828</v>
       </c>
       <c r="P33" t="n">
-        <v>427.5797142594683</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.4022848324918</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.94639310079012</v>
+        <v>80.94639310079017</v>
       </c>
       <c r="K34" t="n">
-        <v>264.1681095267178</v>
+        <v>264.1681095267179</v>
       </c>
       <c r="L34" t="n">
-        <v>394.1315379770949</v>
+        <v>394.131537977095</v>
       </c>
       <c r="M34" t="n">
-        <v>426.0505092093284</v>
+        <v>426.0505092093285</v>
       </c>
       <c r="N34" t="n">
-        <v>421.409491907267</v>
+        <v>421.4094919072671</v>
       </c>
       <c r="O34" t="n">
-        <v>373.0617966018517</v>
+        <v>373.0617966018518</v>
       </c>
       <c r="P34" t="n">
-        <v>295.4605505321077</v>
+        <v>295.4605505321078</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.2837115259899</v>
+        <v>120.28371152599</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.418016012253759</v>
+        <v>1.418016012253844</v>
       </c>
       <c r="J35" t="n">
-        <v>285.4408439058735</v>
+        <v>285.4408439058736</v>
       </c>
       <c r="K35" t="n">
-        <v>479.0528606406493</v>
+        <v>479.0528606406495</v>
       </c>
       <c r="L35" t="n">
-        <v>631.5819413035506</v>
+        <v>631.5819413035508</v>
       </c>
       <c r="M35" t="n">
-        <v>734.745933263647</v>
+        <v>734.7459332636473</v>
       </c>
       <c r="N35" t="n">
-        <v>751.2953031209479</v>
+        <v>751.2953031209483</v>
       </c>
       <c r="O35" t="n">
-        <v>695.956889654517</v>
+        <v>695.9568896545173</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1336079712964</v>
+        <v>559.1336079712967</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.2267138993508</v>
+        <v>371.2267138993509</v>
       </c>
       <c r="R35" t="n">
-        <v>129.6678321763158</v>
+        <v>129.667832176316</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.727099882845351</v>
       </c>
       <c r="J36" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.0250706876432</v>
       </c>
       <c r="L36" t="n">
-        <v>111.998800802387</v>
+        <v>499.9622446278021</v>
       </c>
       <c r="M36" t="n">
-        <v>602.9847498782328</v>
+        <v>602.9847498782331</v>
       </c>
       <c r="N36" t="n">
-        <v>633.4981487539717</v>
+        <v>633.4981487539719</v>
       </c>
       <c r="O36" t="n">
-        <v>557.0828046262191</v>
+        <v>257.9469044897828</v>
       </c>
       <c r="P36" t="n">
-        <v>427.5797142594683</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.94639310079012</v>
+        <v>80.94639310079017</v>
       </c>
       <c r="K37" t="n">
-        <v>264.1681095267178</v>
+        <v>264.1681095267179</v>
       </c>
       <c r="L37" t="n">
-        <v>394.1315379770949</v>
+        <v>394.131537977095</v>
       </c>
       <c r="M37" t="n">
-        <v>426.0505092093284</v>
+        <v>426.0505092093285</v>
       </c>
       <c r="N37" t="n">
-        <v>421.409491907267</v>
+        <v>421.4094919072671</v>
       </c>
       <c r="O37" t="n">
-        <v>373.0617966018517</v>
+        <v>373.0617966018518</v>
       </c>
       <c r="P37" t="n">
-        <v>295.4605505321077</v>
+        <v>295.4605505321078</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.2837115259899</v>
+        <v>120.28371152599</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.418016012253759</v>
+        <v>1.418016012253844</v>
       </c>
       <c r="J38" t="n">
-        <v>285.4408439058735</v>
+        <v>285.4408439058736</v>
       </c>
       <c r="K38" t="n">
-        <v>479.0528606406493</v>
+        <v>479.0528606406495</v>
       </c>
       <c r="L38" t="n">
-        <v>631.5819413035506</v>
+        <v>631.5819413035508</v>
       </c>
       <c r="M38" t="n">
-        <v>734.745933263647</v>
+        <v>734.7459332636473</v>
       </c>
       <c r="N38" t="n">
-        <v>751.2953031209479</v>
+        <v>751.2953031209483</v>
       </c>
       <c r="O38" t="n">
-        <v>695.956889654517</v>
+        <v>695.9568896545173</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1336079712964</v>
+        <v>559.1336079712967</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.2267138993508</v>
+        <v>371.2267138993509</v>
       </c>
       <c r="R38" t="n">
-        <v>129.6678321763158</v>
+        <v>129.667832176316</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.727099882845351</v>
       </c>
       <c r="J39" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K39" t="n">
-        <v>111.998800802387</v>
+        <v>337.0250706876432</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>499.9622446278021</v>
       </c>
       <c r="M39" t="n">
-        <v>602.9847498782328</v>
+        <v>602.9847498782331</v>
       </c>
       <c r="N39" t="n">
-        <v>633.4981487539717</v>
+        <v>633.4981487539719</v>
       </c>
       <c r="O39" t="n">
-        <v>557.0828046262191</v>
+        <v>257.9469044897828</v>
       </c>
       <c r="P39" t="n">
-        <v>427.5797142594683</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.94639310079012</v>
+        <v>80.94639310079017</v>
       </c>
       <c r="K40" t="n">
-        <v>264.1681095267178</v>
+        <v>264.1681095267179</v>
       </c>
       <c r="L40" t="n">
-        <v>394.1315379770949</v>
+        <v>394.131537977095</v>
       </c>
       <c r="M40" t="n">
-        <v>426.0505092093284</v>
+        <v>426.0505092093285</v>
       </c>
       <c r="N40" t="n">
-        <v>421.409491907267</v>
+        <v>421.4094919072671</v>
       </c>
       <c r="O40" t="n">
-        <v>373.0617966018517</v>
+        <v>373.0617966018518</v>
       </c>
       <c r="P40" t="n">
-        <v>295.4605505321077</v>
+        <v>295.4605505321078</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.2837115259899</v>
+        <v>120.28371152599</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.418016012253759</v>
+        <v>1.418016012253844</v>
       </c>
       <c r="J41" t="n">
-        <v>285.4408439058735</v>
+        <v>285.4408439058736</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0528606406493</v>
+        <v>479.0528606406495</v>
       </c>
       <c r="L41" t="n">
-        <v>631.5819413035506</v>
+        <v>631.5819413035508</v>
       </c>
       <c r="M41" t="n">
-        <v>734.745933263647</v>
+        <v>734.7459332636473</v>
       </c>
       <c r="N41" t="n">
-        <v>751.2953031209479</v>
+        <v>751.2953031209483</v>
       </c>
       <c r="O41" t="n">
-        <v>695.956889654517</v>
+        <v>695.9568896545173</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1336079712964</v>
+        <v>559.1336079712967</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.2267138993508</v>
+        <v>371.2267138993509</v>
       </c>
       <c r="R41" t="n">
-        <v>129.6678321763158</v>
+        <v>129.667832176316</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.727099882845351</v>
       </c>
       <c r="J42" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K42" t="n">
-        <v>39.61627043405307</v>
+        <v>337.0250706876432</v>
       </c>
       <c r="L42" t="n">
-        <v>499.9622446278019</v>
+        <v>499.9622446278021</v>
       </c>
       <c r="M42" t="n">
-        <v>602.9847498782328</v>
+        <v>602.9847498782331</v>
       </c>
       <c r="N42" t="n">
-        <v>633.4981487539717</v>
+        <v>633.4981487539719</v>
       </c>
       <c r="O42" t="n">
-        <v>557.0828046262191</v>
+        <v>257.9469044897828</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.94639310079012</v>
+        <v>80.94639310079017</v>
       </c>
       <c r="K43" t="n">
-        <v>264.1681095267178</v>
+        <v>264.1681095267179</v>
       </c>
       <c r="L43" t="n">
-        <v>394.1315379770949</v>
+        <v>394.131537977095</v>
       </c>
       <c r="M43" t="n">
-        <v>426.0505092093284</v>
+        <v>426.0505092093285</v>
       </c>
       <c r="N43" t="n">
-        <v>421.409491907267</v>
+        <v>421.4094919072671</v>
       </c>
       <c r="O43" t="n">
-        <v>373.0617966018517</v>
+        <v>373.0617966018518</v>
       </c>
       <c r="P43" t="n">
-        <v>295.4605505321077</v>
+        <v>295.4605505321078</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.2837115259899</v>
+        <v>120.28371152599</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.418016012253759</v>
+        <v>1.418016012253844</v>
       </c>
       <c r="J44" t="n">
-        <v>285.4408439058735</v>
+        <v>285.4408439058736</v>
       </c>
       <c r="K44" t="n">
-        <v>479.0528606406493</v>
+        <v>479.0528606406495</v>
       </c>
       <c r="L44" t="n">
-        <v>631.5819413035506</v>
+        <v>631.5819413035508</v>
       </c>
       <c r="M44" t="n">
-        <v>734.745933263647</v>
+        <v>734.7459332636473</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2953031209479</v>
+        <v>751.2953031209483</v>
       </c>
       <c r="O44" t="n">
-        <v>695.956889654517</v>
+        <v>695.9568896545173</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1336079712964</v>
+        <v>559.1336079712967</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.2267138993508</v>
+        <v>371.2267138993509</v>
       </c>
       <c r="R44" t="n">
-        <v>129.6678321763158</v>
+        <v>129.667832176316</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.727099882845351</v>
       </c>
       <c r="J45" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.0250706876432</v>
       </c>
       <c r="L45" t="n">
-        <v>499.9622446278019</v>
+        <v>499.9622446278021</v>
       </c>
       <c r="M45" t="n">
-        <v>602.9847498782328</v>
+        <v>602.9847498782331</v>
       </c>
       <c r="N45" t="n">
-        <v>633.4981487539717</v>
+        <v>633.4981487539719</v>
       </c>
       <c r="O45" t="n">
-        <v>557.0828046262191</v>
+        <v>257.9469044897828</v>
       </c>
       <c r="P45" t="n">
-        <v>39.61627043405324</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.94639310079012</v>
+        <v>80.94639310079017</v>
       </c>
       <c r="K46" t="n">
-        <v>264.1681095267178</v>
+        <v>264.1681095267179</v>
       </c>
       <c r="L46" t="n">
-        <v>394.1315379770949</v>
+        <v>394.131537977095</v>
       </c>
       <c r="M46" t="n">
-        <v>426.0505092093284</v>
+        <v>426.0505092093285</v>
       </c>
       <c r="N46" t="n">
-        <v>421.409491907267</v>
+        <v>421.4094919072671</v>
       </c>
       <c r="O46" t="n">
-        <v>373.0617966018517</v>
+        <v>373.0617966018518</v>
       </c>
       <c r="P46" t="n">
-        <v>295.4605505321077</v>
+        <v>295.4605505321078</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.2837115259899</v>
+        <v>120.28371152599</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1136540.341941547</v>
+        <v>1145701.745442441</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675438.956232698</v>
+        <v>1675438.956232704</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>22.58502806141637</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.059824669809841</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -755,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8315678926961</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>99.06392343821568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>110.679647685051</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>363.5546077504175</v>
       </c>
       <c r="H5" t="n">
-        <v>125.2342876630362</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.94563726208598</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>179.7235837454051</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>160.0245354818138</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>63.59441785694217</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.0125969208741</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>85.95014028179246</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>268.9870358648567</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.282806519161</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>173.6076827274348</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.2253929191381</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>86.35257921647522</v>
+        <v>80.71606764504737</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>217.7139640359385</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>205.6368254889307</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>193.9790272259935</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.24368752399549</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>93.91244618182716</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>129.241856785952</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.6303967226472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>405.8322000963236</v>
+        <v>409.8064945845168</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1864042025731</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.77443380478216</v>
+        <v>79.8001393165854</v>
       </c>
       <c r="T23" t="n">
         <v>199.03604613535</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>81.59419338597722</v>
+        <v>21.7036385507936</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.43890183961368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0509578340821</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T25" t="n">
         <v>217.4114992376929</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963209</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1864042025731</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.77443380478216</v>
+        <v>83.77443380478221</v>
       </c>
       <c r="T26" t="n">
         <v>199.03604613535</v>
       </c>
       <c r="U26" t="n">
-        <v>246.9316589851935</v>
+        <v>250.905953473387</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>81.59419338597722</v>
+        <v>102.407051838035</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.43890183961368</v>
+        <v>66.43890183961371</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0509578340821</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T28" t="n">
         <v>217.4114992376929</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963209</v>
       </c>
       <c r="H29" t="n">
-        <v>279.2121097143799</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.77443380478216</v>
+        <v>83.77443380478221</v>
       </c>
       <c r="T29" t="n">
         <v>199.03604613535</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>54.13912336666326</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.50921355551333</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0509578340821</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4114992376929</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9017512535181</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8064945845168</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1864042025731</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.77443380478216</v>
+        <v>79.8001393165863</v>
       </c>
       <c r="T32" t="n">
         <v>199.03604613535</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H34" t="n">
-        <v>140.3072997278743</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.30841035179635</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.43890183961371</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0509578340821</v>
+        <v>41.02944114038794</v>
       </c>
       <c r="T34" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.0245167714755</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>405.8322000963236</v>
+        <v>409.8064945845168</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1864042025731</v>
+        <v>279.2121097143772</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.77443380478216</v>
+        <v>83.77443380478221</v>
       </c>
       <c r="T35" t="n">
         <v>199.03604613535</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.525553994704</v>
+        <v>106.812447652806</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3072997278743</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.49082125346289</v>
+        <v>66.43890183961371</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T37" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1864042025731</v>
+        <v>279.2121097143772</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.77443380478216</v>
+        <v>83.77443380478221</v>
       </c>
       <c r="T38" t="n">
         <v>199.03604613535</v>
@@ -3562,7 +3562,7 @@
         <v>250.905953473387</v>
       </c>
       <c r="V38" t="n">
-        <v>323.7779639819415</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>81.59419338597722</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.525553994704</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>81.5941933859764</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.43890183961368</v>
+        <v>66.43890183961371</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0509578340821</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T40" t="n">
         <v>217.4114992376929</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>378.7595471752872</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1864042025731</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.77443380478216</v>
+        <v>83.77443380478221</v>
       </c>
       <c r="T41" t="n">
-        <v>199.03604613535</v>
+        <v>195.0617516471542</v>
       </c>
       <c r="U41" t="n">
         <v>250.905953473387</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>81.5941933859764</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.43890183961371</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0509578340821</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T43" t="n">
         <v>217.4114992376929</v>
@@ -3957,7 +3957,7 @@
         <v>286.184551609377</v>
       </c>
       <c r="V43" t="n">
-        <v>178.284908213801</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>402.9017512535154</v>
       </c>
       <c r="G44" t="n">
         <v>409.8064945845168</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1864042025731</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.800139316589</v>
+        <v>83.77443380478221</v>
       </c>
       <c r="T44" t="n">
         <v>199.03604613535</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>7.7257954977156</v>
       </c>
       <c r="G46" t="n">
-        <v>54.13912336666411</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T46" t="n">
         <v>217.4114992376929</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.46096678957</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>882.4984498491583</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>882.4984498491583</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>496.7101972509141</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>85.7242924613065</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>74.05994622599944</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>74.05994622599944</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2559.248596410448</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2305.667535674628</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1974.604648331057</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1621.835993060943</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.46096678957</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4391,31 +4391,31 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
         <v>1218.104987164206</v>
@@ -4424,10 +4424,10 @@
         <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>783.0370443974457</v>
+        <v>1758.982323005929</v>
       </c>
       <c r="C4" t="n">
-        <v>614.1008614695388</v>
+        <v>1590.046140078022</v>
       </c>
       <c r="D4" t="n">
-        <v>614.1008614695388</v>
+        <v>1439.929500665686</v>
       </c>
       <c r="E4" t="n">
-        <v>466.1877678871457</v>
+        <v>1292.016407083293</v>
       </c>
       <c r="F4" t="n">
-        <v>319.2978203892353</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>151.3113556975139</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2450.541704475861</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>2450.541704475861</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.467639269233</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="W4" t="n">
-        <v>1413.467639269233</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="X4" t="n">
-        <v>1185.478088371216</v>
+        <v>2161.423366979699</v>
       </c>
       <c r="Y4" t="n">
-        <v>964.6855092276854</v>
+        <v>1940.630787836168</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1713.412786206037</v>
+        <v>1215.247820471428</v>
       </c>
       <c r="C5" t="n">
-        <v>1344.450269265626</v>
+        <v>1215.247820471428</v>
       </c>
       <c r="D5" t="n">
-        <v>986.1845706588754</v>
+        <v>1215.247820471428</v>
       </c>
       <c r="E5" t="n">
-        <v>600.3963180606311</v>
+        <v>829.4595678731839</v>
       </c>
       <c r="F5" t="n">
-        <v>189.4104132710235</v>
+        <v>418.4736630835764</v>
       </c>
       <c r="G5" t="n">
-        <v>177.7460670357165</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281609</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X5" t="n">
-        <v>2100.012626270159</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y5" t="n">
-        <v>2100.012626270159</v>
+        <v>1601.84766053555</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>535.0593816855418</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>366.1231987576349</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>224.1731970904424</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>75.43429895394854</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1454.90714659429</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1165.489976557329</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>937.5004256593116</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>716.7078465157815</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1445.965582893149</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C8" t="n">
-        <v>1445.965582893149</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>1087.699884286399</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>701.9116316881543</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>290.9257268985468</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>279.2613806632397</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2498.102542686072</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,37 +4871,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.930966067699</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354872</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>591.0921880517759</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.2996089082458</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.370295943748</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C11" t="n">
-        <v>1308.370295943748</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D11" t="n">
-        <v>950.1045973369974</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E11" t="n">
-        <v>564.3163447387531</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>153.3304399491455</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
         <v>66.51211643218342</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2359.017712435363</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>696.9427113039706</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>468.9531604059532</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.1605812624231</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.09808975843</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C14" t="n">
-        <v>1519.135572818019</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1160.869874211268</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>775.0816216130238</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5317,13 +5317,13 @@
         <v>2630.721789066532</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796417</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X14" t="n">
-        <v>1904.487375535337</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y14" t="n">
-        <v>1888.09808975843</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5345,46 +5345,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>470.5862204338725</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C16" t="n">
-        <v>301.6500375059657</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D16" t="n">
-        <v>301.6500375059657</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E16" t="n">
-        <v>153.7369439235725</v>
+        <v>315.7463345171083</v>
       </c>
       <c r="F16" t="n">
-        <v>153.7369439235725</v>
+        <v>315.7463345171083</v>
       </c>
       <c r="G16" t="n">
-        <v>153.7369439235725</v>
+        <v>148.0434978918272</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W16" t="n">
-        <v>880.2242361621296</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X16" t="n">
-        <v>652.2346852641123</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y16" t="n">
-        <v>652.2346852641123</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1881.708680670284</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C17" t="n">
-        <v>1512.746163729873</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D17" t="n">
-        <v>1154.480465123122</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1154.480465123122</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>743.4945603335148</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>328.4221101785112</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5515,10 +5515,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5530,10 +5530,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2801.623440380154</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995486</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734406</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y17" t="n">
-        <v>2268.308520734406</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.011591242373</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>1228.073179902986</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>938.656009866025</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>710.6664589680076</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.6664589680076</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2303.170539913434</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,13 +5752,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3282.935430170792</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3282.935430170792</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3029.404953444628</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3029.404953444628</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2676.636298174514</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2303.170539913434</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y20" t="n">
-        <v>2303.170539913434</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="21">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>679.1346335501037</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
         <v>234.2149530574645</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1615.697475415547</v>
+        <v>1605.061333828499</v>
       </c>
       <c r="U22" t="n">
-        <v>1326.59460854119</v>
+        <v>1315.958466954142</v>
       </c>
       <c r="V22" t="n">
-        <v>1326.59460854119</v>
+        <v>1061.273978748255</v>
       </c>
       <c r="W22" t="n">
-        <v>1037.177438504229</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="X22" t="n">
-        <v>1037.177438504229</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="Y22" t="n">
-        <v>860.7830983803434</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2313.718000759165</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C23" t="n">
-        <v>1944.755483818753</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D23" t="n">
-        <v>1586.489785212003</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E23" t="n">
-        <v>1200.701532613759</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F23" t="n">
-        <v>789.7156278241512</v>
+        <v>793.7300667011141</v>
       </c>
       <c r="G23" t="n">
         <v>379.7841125753394</v>
       </c>
       <c r="H23" t="n">
-        <v>93.73723964344738</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I23" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J23" t="n">
-        <v>377.7275109623938</v>
+        <v>377.7275109623932</v>
       </c>
       <c r="K23" t="n">
-        <v>851.989842996637</v>
+        <v>851.9898429966356</v>
       </c>
       <c r="L23" t="n">
         <v>1477.255964887152</v>
       </c>
       <c r="M23" t="n">
-        <v>2204.654438818163</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N23" t="n">
-        <v>2948.436788907902</v>
+        <v>2948.4367889079</v>
       </c>
       <c r="O23" t="n">
-        <v>3637.434109665875</v>
+        <v>3637.434109665872</v>
       </c>
       <c r="P23" t="n">
-        <v>4190.976381557459</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q23" t="n">
-        <v>4558.490828317816</v>
+        <v>4558.490828317812</v>
       </c>
       <c r="R23" t="n">
-        <v>4686.861982172369</v>
+        <v>4686.861982172365</v>
       </c>
       <c r="S23" t="n">
-        <v>4602.241341965518</v>
+        <v>4606.255780842481</v>
       </c>
       <c r="T23" t="n">
-        <v>4401.194830717689</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U23" t="n">
-        <v>4147.754473673864</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.691586330293</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.922931060179</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X23" t="n">
-        <v>3090.457172799099</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y23" t="n">
-        <v>2700.317840823287</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F24" t="n">
-        <v>314.1784171345864</v>
+        <v>314.1784171345863</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4180454794471</v>
+        <v>178.418045479447</v>
       </c>
       <c r="H24" t="n">
-        <v>93.73723964344738</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I24" t="n">
-        <v>95.44706852746428</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="J24" t="n">
-        <v>244.9357666236181</v>
+        <v>243.2259377396011</v>
       </c>
       <c r="K24" t="n">
-        <v>578.5905866043848</v>
+        <v>576.8807577203677</v>
       </c>
       <c r="L24" t="n">
-        <v>1073.553208785909</v>
+        <v>1071.843379901892</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.50811116536</v>
+        <v>1668.798282281342</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.671278431792</v>
+        <v>2129.734796759803</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.038713876677</v>
+        <v>2129.734796759803</v>
       </c>
       <c r="P24" t="n">
         <v>2553.038713876677</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>512.2893290164868</v>
+        <v>579.3993308746815</v>
       </c>
       <c r="C25" t="n">
-        <v>343.3531460885799</v>
+        <v>410.4631479467746</v>
       </c>
       <c r="D25" t="n">
-        <v>260.9347689310272</v>
+        <v>388.5402807237508</v>
       </c>
       <c r="E25" t="n">
-        <v>260.9347689310272</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="F25" t="n">
-        <v>260.9347689310272</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="G25" t="n">
-        <v>93.73723964344738</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="H25" t="n">
-        <v>93.73723964344738</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="I25" t="n">
-        <v>93.73723964344738</v>
+        <v>93.7372396434473</v>
       </c>
       <c r="J25" t="n">
-        <v>173.8741688132297</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K25" t="n">
-        <v>435.4005972446804</v>
+        <v>435.4005972446801</v>
       </c>
       <c r="L25" t="n">
-        <v>825.5908198420045</v>
+        <v>825.5908198420041</v>
       </c>
       <c r="M25" t="n">
-        <v>1247.38082395924</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N25" t="n">
-        <v>1664.576220947434</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O25" t="n">
-        <v>2033.907399583268</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P25" t="n">
-        <v>2326.413344610054</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q25" t="n">
-        <v>2445.494219020784</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R25" t="n">
-        <v>2378.384217162588</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="S25" t="n">
-        <v>2195.504461774627</v>
+        <v>2262.614463632821</v>
       </c>
       <c r="T25" t="n">
-        <v>1975.896886787058</v>
+        <v>2043.006888645253</v>
       </c>
       <c r="U25" t="n">
-        <v>1686.821582131122</v>
+        <v>1753.931583989316</v>
       </c>
       <c r="V25" t="n">
-        <v>1432.137093925235</v>
+        <v>1499.247095783429</v>
       </c>
       <c r="W25" t="n">
-        <v>1142.719923888274</v>
+        <v>1209.829925746469</v>
       </c>
       <c r="X25" t="n">
-        <v>914.7303729902567</v>
+        <v>981.8403748484513</v>
       </c>
       <c r="Y25" t="n">
-        <v>693.9377938467265</v>
+        <v>761.0477957049212</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759162</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818751</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785212</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613756</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7300667011141</v>
+        <v>789.7156278241484</v>
       </c>
       <c r="G26" t="n">
         <v>379.7841125753394</v>
       </c>
       <c r="H26" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I26" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J26" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623931</v>
       </c>
       <c r="K26" t="n">
-        <v>851.9898429966365</v>
+        <v>851.9898429966358</v>
       </c>
       <c r="L26" t="n">
-        <v>1477.255964887152</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M26" t="n">
-        <v>2204.654438818163</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N26" t="n">
-        <v>2948.436788907902</v>
+        <v>2948.4367889079</v>
       </c>
       <c r="O26" t="n">
-        <v>3637.434109665874</v>
+        <v>3637.434109665873</v>
       </c>
       <c r="P26" t="n">
-        <v>4190.976381557458</v>
+        <v>4190.976381557456</v>
       </c>
       <c r="Q26" t="n">
-        <v>4558.490828317816</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R26" t="n">
-        <v>4686.861982172369</v>
+        <v>4686.861982172366</v>
       </c>
       <c r="S26" t="n">
-        <v>4602.241341965518</v>
+        <v>4602.241341965515</v>
       </c>
       <c r="T26" t="n">
-        <v>4401.194830717689</v>
+        <v>4401.194830717686</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673861</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.69158633029</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060176</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799096</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823284</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F27" t="n">
-        <v>314.1784171345864</v>
+        <v>314.1784171345863</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4180454794471</v>
+        <v>178.418045479447</v>
       </c>
       <c r="H27" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I27" t="n">
-        <v>95.44706852746428</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="J27" t="n">
-        <v>244.9357666236181</v>
+        <v>243.2259377396011</v>
       </c>
       <c r="K27" t="n">
-        <v>578.5905866043848</v>
+        <v>576.8807577203677</v>
       </c>
       <c r="L27" t="n">
-        <v>1073.553208785909</v>
+        <v>1071.843379901892</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.50811116536</v>
+        <v>1668.798282281342</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.671278431792</v>
+        <v>2129.734796759803</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.038713876677</v>
+        <v>2129.734796759803</v>
       </c>
       <c r="P27" t="n">
         <v>2553.038713876677</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>512.2893290164868</v>
+        <v>512.2893290164859</v>
       </c>
       <c r="C28" t="n">
-        <v>343.3531460885799</v>
+        <v>512.2893290164859</v>
       </c>
       <c r="D28" t="n">
-        <v>260.9347689310272</v>
+        <v>408.8478625134202</v>
       </c>
       <c r="E28" t="n">
-        <v>260.9347689310272</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="F28" t="n">
-        <v>260.9347689310272</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="G28" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="H28" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I28" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="J28" t="n">
-        <v>173.8741688132297</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K28" t="n">
-        <v>435.4005972446804</v>
+        <v>435.4005972446802</v>
       </c>
       <c r="L28" t="n">
-        <v>825.5908198420045</v>
+        <v>825.5908198420041</v>
       </c>
       <c r="M28" t="n">
-        <v>1247.38082395924</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N28" t="n">
-        <v>1664.576220947434</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O28" t="n">
-        <v>2033.907399583268</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P28" t="n">
-        <v>2326.413344610054</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q28" t="n">
-        <v>2445.494219020784</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R28" t="n">
-        <v>2378.384217162588</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S28" t="n">
-        <v>2195.504461774627</v>
+        <v>2195.504461774626</v>
       </c>
       <c r="T28" t="n">
-        <v>1975.896886787058</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U28" t="n">
-        <v>1686.821582131122</v>
+        <v>1686.821582131121</v>
       </c>
       <c r="V28" t="n">
-        <v>1432.137093925235</v>
+        <v>1432.137093925234</v>
       </c>
       <c r="W28" t="n">
-        <v>1142.719923888274</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X28" t="n">
-        <v>914.7303729902567</v>
+        <v>914.7303729902558</v>
       </c>
       <c r="Y28" t="n">
-        <v>693.9377938467265</v>
+        <v>693.9377938467256</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2313.718000759165</v>
+        <v>2313.718000759162</v>
       </c>
       <c r="C29" t="n">
-        <v>1944.755483818753</v>
+        <v>1944.755483818751</v>
       </c>
       <c r="D29" t="n">
-        <v>1586.489785212003</v>
+        <v>1586.489785212</v>
       </c>
       <c r="E29" t="n">
-        <v>1200.701532613759</v>
+        <v>1200.701532613756</v>
       </c>
       <c r="F29" t="n">
-        <v>789.7156278241512</v>
+        <v>789.7156278241484</v>
       </c>
       <c r="G29" t="n">
-        <v>375.7696736983766</v>
+        <v>379.7841125753394</v>
       </c>
       <c r="H29" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I29" t="n">
-        <v>95.1410754955786</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J29" t="n">
-        <v>377.7275109623935</v>
+        <v>377.7275109623932</v>
       </c>
       <c r="K29" t="n">
-        <v>851.989842996637</v>
+        <v>851.9898429966365</v>
       </c>
       <c r="L29" t="n">
         <v>1477.255964887152</v>
       </c>
       <c r="M29" t="n">
-        <v>2204.654438818164</v>
+        <v>2204.654438818162</v>
       </c>
       <c r="N29" t="n">
-        <v>2948.436788907903</v>
+        <v>2948.436788907901</v>
       </c>
       <c r="O29" t="n">
-        <v>3637.434109665875</v>
+        <v>3637.434109665873</v>
       </c>
       <c r="P29" t="n">
-        <v>4190.976381557459</v>
+        <v>4190.976381557456</v>
       </c>
       <c r="Q29" t="n">
-        <v>4558.490828317816</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R29" t="n">
-        <v>4686.861982172369</v>
+        <v>4686.861982172366</v>
       </c>
       <c r="S29" t="n">
-        <v>4602.241341965518</v>
+        <v>4602.241341965515</v>
       </c>
       <c r="T29" t="n">
-        <v>4401.194830717689</v>
+        <v>4401.194830717686</v>
       </c>
       <c r="U29" t="n">
-        <v>4147.754473673864</v>
+        <v>4147.754473673861</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.691586330293</v>
+        <v>3816.69158633029</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.922931060179</v>
+        <v>3463.922931060176</v>
       </c>
       <c r="X29" t="n">
-        <v>3090.457172799099</v>
+        <v>3090.457172799096</v>
       </c>
       <c r="Y29" t="n">
-        <v>2700.317840823287</v>
+        <v>2700.317840823284</v>
       </c>
     </row>
     <row r="30">
@@ -6530,31 +6530,31 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F30" t="n">
-        <v>314.1784171345864</v>
+        <v>314.1784171345863</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4180454794471</v>
+        <v>178.418045479447</v>
       </c>
       <c r="H30" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I30" t="n">
-        <v>95.44706852746428</v>
+        <v>95.44706852746418</v>
       </c>
       <c r="J30" t="n">
-        <v>244.9357666236181</v>
+        <v>244.935766623618</v>
       </c>
       <c r="K30" t="n">
-        <v>578.5905866043848</v>
+        <v>578.5905866043845</v>
       </c>
       <c r="L30" t="n">
-        <v>1073.553208785909</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.50811116536</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.671278431792</v>
+        <v>2297.671278431791</v>
       </c>
       <c r="O30" t="n">
         <v>2553.038713876677</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7031555660831</v>
+        <v>762.2790862626432</v>
       </c>
       <c r="C31" t="n">
-        <v>391.7669726381762</v>
+        <v>593.3429033347363</v>
       </c>
       <c r="D31" t="n">
-        <v>241.6503332258405</v>
+        <v>443.2262639224006</v>
       </c>
       <c r="E31" t="n">
-        <v>93.73723964344738</v>
+        <v>295.3131703400074</v>
       </c>
       <c r="F31" t="n">
-        <v>93.73723964344738</v>
+        <v>148.4232228420971</v>
       </c>
       <c r="G31" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="H31" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I31" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="J31" t="n">
-        <v>173.8741688132297</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K31" t="n">
-        <v>435.4005972446804</v>
+        <v>435.4005972446802</v>
       </c>
       <c r="L31" t="n">
-        <v>825.5908198420045</v>
+        <v>825.5908198420041</v>
       </c>
       <c r="M31" t="n">
-        <v>1247.38082395924</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N31" t="n">
-        <v>1664.576220947434</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O31" t="n">
-        <v>2033.907399583268</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P31" t="n">
-        <v>2326.413344610054</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q31" t="n">
-        <v>2445.494219020784</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R31" t="n">
-        <v>2426.798043712185</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.918288324223</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.310713336654</v>
+        <v>2225.886644033214</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.235408680718</v>
+        <v>1936.811339377278</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.550920474831</v>
+        <v>1682.126851171391</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.13375043787</v>
+        <v>1392.70968113443</v>
       </c>
       <c r="X31" t="n">
-        <v>963.1441995398529</v>
+        <v>1164.720130236413</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.3516203963228</v>
+        <v>943.9275510928829</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2313.718000759165</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C32" t="n">
-        <v>1944.755483818753</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D32" t="n">
-        <v>1586.489785212003</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E32" t="n">
-        <v>1200.701532613759</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F32" t="n">
         <v>793.7300667011141</v>
@@ -6694,58 +6694,58 @@
         <v>379.7841125753394</v>
       </c>
       <c r="H32" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I32" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J32" t="n">
-        <v>377.7275109623936</v>
+        <v>377.7275109623929</v>
       </c>
       <c r="K32" t="n">
-        <v>851.9898429966365</v>
+        <v>851.9898429966356</v>
       </c>
       <c r="L32" t="n">
-        <v>1477.255964887152</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M32" t="n">
-        <v>2204.654438818163</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N32" t="n">
-        <v>2948.436788907902</v>
+        <v>2948.436788907899</v>
       </c>
       <c r="O32" t="n">
-        <v>3637.434109665875</v>
+        <v>3637.434109665871</v>
       </c>
       <c r="P32" t="n">
-        <v>4190.976381557459</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q32" t="n">
-        <v>4558.490828317816</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R32" t="n">
-        <v>4686.861982172369</v>
+        <v>4686.861982172366</v>
       </c>
       <c r="S32" t="n">
-        <v>4602.241341965518</v>
+        <v>4606.255780842481</v>
       </c>
       <c r="T32" t="n">
-        <v>4401.194830717689</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U32" t="n">
-        <v>4147.754473673864</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.691586330293</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.922931060179</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X32" t="n">
-        <v>3090.457172799099</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y32" t="n">
-        <v>2700.317840823287</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="33">
@@ -6767,31 +6767,31 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F33" t="n">
-        <v>314.1784171345864</v>
+        <v>314.1784171345863</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4180454794471</v>
+        <v>178.418045479447</v>
       </c>
       <c r="H33" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I33" t="n">
-        <v>95.44706852746428</v>
+        <v>95.44706852746418</v>
       </c>
       <c r="J33" t="n">
-        <v>244.9357666236181</v>
+        <v>244.935766623618</v>
       </c>
       <c r="K33" t="n">
-        <v>578.5905866043848</v>
+        <v>578.5905866043845</v>
       </c>
       <c r="L33" t="n">
-        <v>1073.553208785909</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.50811116536</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.671278431792</v>
+        <v>2297.671278431791</v>
       </c>
       <c r="O33" t="n">
         <v>2553.038713876677</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.515177531244</v>
+        <v>653.7252044646619</v>
       </c>
       <c r="C34" t="n">
-        <v>847.5789946033375</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="D34" t="n">
-        <v>697.4623551910017</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="E34" t="n">
-        <v>549.5492616086086</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="F34" t="n">
-        <v>402.6593141106982</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="G34" t="n">
-        <v>235.4617848231184</v>
+        <v>317.5914922491753</v>
       </c>
       <c r="H34" t="n">
-        <v>93.73723964344738</v>
+        <v>175.8669470695042</v>
       </c>
       <c r="I34" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="J34" t="n">
-        <v>173.8741688132297</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K34" t="n">
-        <v>435.4005972446804</v>
+        <v>435.4005972446802</v>
       </c>
       <c r="L34" t="n">
-        <v>825.5908198420045</v>
+        <v>825.5908198420041</v>
       </c>
       <c r="M34" t="n">
-        <v>1247.38082395924</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N34" t="n">
-        <v>1664.576220947434</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O34" t="n">
-        <v>2033.907399583268</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P34" t="n">
-        <v>2326.413344610054</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q34" t="n">
-        <v>2445.494219020784</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R34" t="n">
-        <v>2445.494219020784</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S34" t="n">
-        <v>2262.614463632822</v>
+        <v>2336.940337222802</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.006888645254</v>
+        <v>2117.332762235233</v>
       </c>
       <c r="U34" t="n">
-        <v>2043.006888645254</v>
+        <v>1828.257457579297</v>
       </c>
       <c r="V34" t="n">
-        <v>1788.322400439367</v>
+        <v>1573.57296937341</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.905230402406</v>
+        <v>1284.155799336449</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.915679504389</v>
+        <v>1056.166248438432</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.163642361484</v>
+        <v>835.3736692949017</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2313.718000759165</v>
+        <v>2313.718000759162</v>
       </c>
       <c r="C35" t="n">
-        <v>1944.755483818753</v>
+        <v>1944.755483818751</v>
       </c>
       <c r="D35" t="n">
-        <v>1586.489785212003</v>
+        <v>1586.489785212</v>
       </c>
       <c r="E35" t="n">
-        <v>1200.701532613759</v>
+        <v>1200.701532613756</v>
       </c>
       <c r="F35" t="n">
-        <v>789.7156278241512</v>
+        <v>789.7156278241484</v>
       </c>
       <c r="G35" t="n">
-        <v>379.7841125753394</v>
+        <v>375.7696736983738</v>
       </c>
       <c r="H35" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I35" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J35" t="n">
-        <v>377.7275109623943</v>
+        <v>377.7275109623934</v>
       </c>
       <c r="K35" t="n">
-        <v>851.989842996637</v>
+        <v>851.9898429966361</v>
       </c>
       <c r="L35" t="n">
-        <v>1477.255964887154</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M35" t="n">
-        <v>2204.654438818164</v>
+        <v>2204.654438818162</v>
       </c>
       <c r="N35" t="n">
-        <v>2948.436788907903</v>
+        <v>2948.4367889079</v>
       </c>
       <c r="O35" t="n">
-        <v>3637.434109665875</v>
+        <v>3637.434109665873</v>
       </c>
       <c r="P35" t="n">
-        <v>4190.976381557459</v>
+        <v>4190.976381557456</v>
       </c>
       <c r="Q35" t="n">
-        <v>4558.490828317816</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R35" t="n">
-        <v>4686.861982172369</v>
+        <v>4686.861982172366</v>
       </c>
       <c r="S35" t="n">
-        <v>4602.241341965518</v>
+        <v>4602.241341965515</v>
       </c>
       <c r="T35" t="n">
-        <v>4401.194830717689</v>
+        <v>4401.194830717686</v>
       </c>
       <c r="U35" t="n">
-        <v>4147.754473673864</v>
+        <v>4147.754473673861</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.691586330293</v>
+        <v>3816.69158633029</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.922931060179</v>
+        <v>3463.922931060176</v>
       </c>
       <c r="X35" t="n">
-        <v>3090.457172799099</v>
+        <v>3090.457172799096</v>
       </c>
       <c r="Y35" t="n">
-        <v>2700.317840823287</v>
+        <v>2700.317840823284</v>
       </c>
     </row>
     <row r="36">
@@ -7004,31 +7004,31 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F36" t="n">
-        <v>314.1784171345864</v>
+        <v>314.1784171345863</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4180454794471</v>
+        <v>178.418045479447</v>
       </c>
       <c r="H36" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I36" t="n">
-        <v>95.44706852746428</v>
+        <v>95.44706852746418</v>
       </c>
       <c r="J36" t="n">
-        <v>244.9357666236181</v>
+        <v>244.935766623618</v>
       </c>
       <c r="K36" t="n">
-        <v>578.5905866043848</v>
+        <v>578.5905866043845</v>
       </c>
       <c r="L36" t="n">
-        <v>1073.553208785909</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.50811116536</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.671278431792</v>
+        <v>2297.671278431791</v>
       </c>
       <c r="O36" t="n">
         <v>2553.038713876677</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.515177531244</v>
+        <v>512.2893290164859</v>
       </c>
       <c r="C37" t="n">
-        <v>847.5789946033375</v>
+        <v>343.353146088579</v>
       </c>
       <c r="D37" t="n">
-        <v>697.4623551910017</v>
+        <v>343.353146088579</v>
       </c>
       <c r="E37" t="n">
-        <v>549.5492616086086</v>
+        <v>343.353146088579</v>
       </c>
       <c r="F37" t="n">
-        <v>402.6593141106982</v>
+        <v>343.353146088579</v>
       </c>
       <c r="G37" t="n">
         <v>235.4617848231184</v>
       </c>
       <c r="H37" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I37" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="J37" t="n">
-        <v>173.8741688132297</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K37" t="n">
-        <v>435.4005972446804</v>
+        <v>435.4005972446802</v>
       </c>
       <c r="L37" t="n">
-        <v>825.5908198420045</v>
+        <v>825.5908198420041</v>
       </c>
       <c r="M37" t="n">
-        <v>1247.38082395924</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N37" t="n">
-        <v>1664.576220947434</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O37" t="n">
-        <v>2033.907399583268</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P37" t="n">
-        <v>2326.413344610054</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q37" t="n">
-        <v>2445.494219020784</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R37" t="n">
-        <v>2410.655005633448</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S37" t="n">
-        <v>2410.655005633448</v>
+        <v>2195.504461774626</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.047430645879</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.047430645879</v>
+        <v>1686.821582131121</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.362942439992</v>
+        <v>1432.137093925234</v>
       </c>
       <c r="W37" t="n">
-        <v>1646.945772403031</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X37" t="n">
-        <v>1418.956221505014</v>
+        <v>914.7303729902558</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.163642361484</v>
+        <v>693.9377938467256</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759162</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818751</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785212</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613756</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7300667011141</v>
+        <v>789.7156278241484</v>
       </c>
       <c r="G38" t="n">
-        <v>379.7841125753394</v>
+        <v>375.7696736983738</v>
       </c>
       <c r="H38" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I38" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J38" t="n">
-        <v>377.7275109623943</v>
+        <v>377.7275109623934</v>
       </c>
       <c r="K38" t="n">
-        <v>851.9898429966379</v>
+        <v>851.9898429966361</v>
       </c>
       <c r="L38" t="n">
-        <v>1477.255964887153</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M38" t="n">
-        <v>2204.654438818164</v>
+        <v>2204.654438818162</v>
       </c>
       <c r="N38" t="n">
-        <v>2948.436788907903</v>
+        <v>2948.4367889079</v>
       </c>
       <c r="O38" t="n">
-        <v>3637.434109665875</v>
+        <v>3637.434109665873</v>
       </c>
       <c r="P38" t="n">
-        <v>4190.976381557459</v>
+        <v>4190.976381557456</v>
       </c>
       <c r="Q38" t="n">
-        <v>4558.490828317816</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R38" t="n">
-        <v>4686.861982172369</v>
+        <v>4686.861982172366</v>
       </c>
       <c r="S38" t="n">
-        <v>4602.241341965518</v>
+        <v>4602.241341965515</v>
       </c>
       <c r="T38" t="n">
-        <v>4401.194830717689</v>
+        <v>4401.194830717686</v>
       </c>
       <c r="U38" t="n">
-        <v>4147.754473673864</v>
+        <v>4147.754473673861</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.69158633029</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060176</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799096</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823284</v>
       </c>
     </row>
     <row r="39">
@@ -7241,31 +7241,31 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F39" t="n">
-        <v>314.1784171345864</v>
+        <v>314.1784171345863</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4180454794471</v>
+        <v>178.418045479447</v>
       </c>
       <c r="H39" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I39" t="n">
-        <v>95.44706852746428</v>
+        <v>95.44706852746418</v>
       </c>
       <c r="J39" t="n">
-        <v>244.9357666236181</v>
+        <v>244.935766623618</v>
       </c>
       <c r="K39" t="n">
-        <v>578.5905866043848</v>
+        <v>578.5905866043845</v>
       </c>
       <c r="L39" t="n">
-        <v>1073.553208785909</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.50811116536</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.671278431792</v>
+        <v>2297.671278431791</v>
       </c>
       <c r="O39" t="n">
         <v>2553.038713876677</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.2893290164868</v>
+        <v>512.2893290164859</v>
       </c>
       <c r="C40" t="n">
-        <v>343.3531460885799</v>
+        <v>343.353146088579</v>
       </c>
       <c r="D40" t="n">
-        <v>260.9347689310272</v>
+        <v>343.353146088579</v>
       </c>
       <c r="E40" t="n">
-        <v>260.9347689310272</v>
+        <v>343.353146088579</v>
       </c>
       <c r="F40" t="n">
-        <v>260.9347689310272</v>
+        <v>343.353146088579</v>
       </c>
       <c r="G40" t="n">
-        <v>93.73723964344738</v>
+        <v>176.1556168009992</v>
       </c>
       <c r="H40" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I40" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="J40" t="n">
-        <v>173.8741688132297</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K40" t="n">
-        <v>435.4005972446804</v>
+        <v>435.4005972446802</v>
       </c>
       <c r="L40" t="n">
-        <v>825.5908198420045</v>
+        <v>825.5908198420041</v>
       </c>
       <c r="M40" t="n">
-        <v>1247.38082395924</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N40" t="n">
-        <v>1664.576220947434</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O40" t="n">
-        <v>2033.907399583268</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P40" t="n">
-        <v>2326.413344610054</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q40" t="n">
-        <v>2445.494219020784</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R40" t="n">
-        <v>2378.384217162588</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S40" t="n">
-        <v>2195.504461774627</v>
+        <v>2195.504461774626</v>
       </c>
       <c r="T40" t="n">
-        <v>1975.896886787058</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U40" t="n">
-        <v>1686.821582131122</v>
+        <v>1686.821582131121</v>
       </c>
       <c r="V40" t="n">
-        <v>1432.137093925235</v>
+        <v>1432.137093925234</v>
       </c>
       <c r="W40" t="n">
-        <v>1142.719923888274</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X40" t="n">
-        <v>914.7303729902567</v>
+        <v>914.7303729902558</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.9377938467265</v>
+        <v>693.9377938467256</v>
       </c>
     </row>
     <row r="41">
@@ -7405,58 +7405,58 @@
         <v>379.7841125753394</v>
       </c>
       <c r="H41" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I41" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J41" t="n">
-        <v>377.7275109623938</v>
+        <v>377.7275109623934</v>
       </c>
       <c r="K41" t="n">
-        <v>851.989842996637</v>
+        <v>851.9898429966365</v>
       </c>
       <c r="L41" t="n">
         <v>1477.255964887152</v>
       </c>
       <c r="M41" t="n">
-        <v>2204.654438818163</v>
+        <v>2204.654438818162</v>
       </c>
       <c r="N41" t="n">
-        <v>2948.436788907902</v>
+        <v>2948.436788907901</v>
       </c>
       <c r="O41" t="n">
-        <v>3637.434109665875</v>
+        <v>3637.434109665873</v>
       </c>
       <c r="P41" t="n">
-        <v>4190.976381557459</v>
+        <v>4190.976381557456</v>
       </c>
       <c r="Q41" t="n">
-        <v>4558.490828317816</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R41" t="n">
-        <v>4686.861982172369</v>
+        <v>4686.861982172366</v>
       </c>
       <c r="S41" t="n">
-        <v>4602.241341965518</v>
+        <v>4602.241341965515</v>
       </c>
       <c r="T41" t="n">
-        <v>4401.194830717689</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U41" t="n">
-        <v>4147.754473673864</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V41" t="n">
-        <v>3816.691586330293</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W41" t="n">
-        <v>3463.922931060179</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X41" t="n">
-        <v>3090.457172799099</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y41" t="n">
-        <v>2700.317840823287</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="42">
@@ -7478,31 +7478,31 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F42" t="n">
-        <v>314.1784171345864</v>
+        <v>314.1784171345863</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4180454794471</v>
+        <v>178.418045479447</v>
       </c>
       <c r="H42" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I42" t="n">
-        <v>95.44706852746428</v>
+        <v>95.44706852746418</v>
       </c>
       <c r="J42" t="n">
-        <v>244.9357666236181</v>
+        <v>244.935766623618</v>
       </c>
       <c r="K42" t="n">
-        <v>578.5905866043848</v>
+        <v>578.5905866043845</v>
       </c>
       <c r="L42" t="n">
-        <v>1073.553208785909</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.50811116536</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.671278431792</v>
+        <v>2297.671278431791</v>
       </c>
       <c r="O42" t="n">
         <v>2553.038713876677</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.7906323515733</v>
+        <v>512.2893290164859</v>
       </c>
       <c r="C43" t="n">
-        <v>705.8544494236664</v>
+        <v>343.353146088579</v>
       </c>
       <c r="D43" t="n">
-        <v>555.7378100113307</v>
+        <v>343.353146088579</v>
       </c>
       <c r="E43" t="n">
-        <v>407.8247164289376</v>
+        <v>343.353146088579</v>
       </c>
       <c r="F43" t="n">
-        <v>260.9347689310272</v>
+        <v>343.353146088579</v>
       </c>
       <c r="G43" t="n">
-        <v>93.73723964344738</v>
+        <v>176.1556168009992</v>
       </c>
       <c r="H43" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I43" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="J43" t="n">
-        <v>173.8741688132297</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K43" t="n">
-        <v>435.4005972446804</v>
+        <v>435.4005972446802</v>
       </c>
       <c r="L43" t="n">
-        <v>825.5908198420045</v>
+        <v>825.5908198420041</v>
       </c>
       <c r="M43" t="n">
-        <v>1247.38082395924</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N43" t="n">
-        <v>1664.576220947434</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O43" t="n">
-        <v>2033.907399583268</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P43" t="n">
-        <v>2326.413344610054</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q43" t="n">
-        <v>2445.494219020784</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R43" t="n">
-        <v>2445.494219020784</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S43" t="n">
-        <v>2262.614463632822</v>
+        <v>2195.504461774626</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.006888645254</v>
+        <v>1975.896886787057</v>
       </c>
       <c r="U43" t="n">
-        <v>1753.931583989317</v>
+        <v>1686.821582131121</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.845818116791</v>
+        <v>1432.137093925234</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.42864807983</v>
+        <v>1142.719923888273</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.439097181813</v>
+        <v>914.7303729902558</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.439097181813</v>
+        <v>693.9377938467256</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759162</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818751</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785212</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613756</v>
       </c>
       <c r="F44" t="n">
         <v>793.7300667011141</v>
@@ -7642,58 +7642,58 @@
         <v>379.7841125753394</v>
       </c>
       <c r="H44" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I44" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J44" t="n">
-        <v>377.7275109623938</v>
+        <v>377.7275109623931</v>
       </c>
       <c r="K44" t="n">
-        <v>851.989842996637</v>
+        <v>851.9898429966358</v>
       </c>
       <c r="L44" t="n">
-        <v>1477.255964887152</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M44" t="n">
-        <v>2204.654438818163</v>
+        <v>2204.654438818161</v>
       </c>
       <c r="N44" t="n">
-        <v>2948.436788907902</v>
+        <v>2948.436788907899</v>
       </c>
       <c r="O44" t="n">
-        <v>3637.434109665875</v>
+        <v>3637.434109665873</v>
       </c>
       <c r="P44" t="n">
-        <v>4190.976381557459</v>
+        <v>4190.976381557455</v>
       </c>
       <c r="Q44" t="n">
-        <v>4558.490828317816</v>
+        <v>4558.490828317813</v>
       </c>
       <c r="R44" t="n">
-        <v>4686.861982172369</v>
+        <v>4686.861982172366</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965515</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717686</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673861</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.69158633029</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060176</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799096</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.317840823284</v>
       </c>
     </row>
     <row r="45">
@@ -7715,31 +7715,31 @@
         <v>460.7129751077014</v>
       </c>
       <c r="F45" t="n">
-        <v>314.1784171345864</v>
+        <v>314.1784171345863</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4180454794471</v>
+        <v>178.418045479447</v>
       </c>
       <c r="H45" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I45" t="n">
-        <v>95.44706852746428</v>
+        <v>95.44706852746418</v>
       </c>
       <c r="J45" t="n">
-        <v>244.9357666236181</v>
+        <v>244.935766623618</v>
       </c>
       <c r="K45" t="n">
-        <v>578.5905866043848</v>
+        <v>578.5905866043845</v>
       </c>
       <c r="L45" t="n">
-        <v>1073.553208785909</v>
+        <v>1073.553208785908</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.50811116536</v>
+        <v>1670.508111165359</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.671278431792</v>
+        <v>2297.671278431791</v>
       </c>
       <c r="O45" t="n">
         <v>2553.038713876677</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.2790862626441</v>
+        <v>579.3993308746815</v>
       </c>
       <c r="C46" t="n">
-        <v>593.3429033347372</v>
+        <v>410.4631479467746</v>
       </c>
       <c r="D46" t="n">
-        <v>443.2262639224015</v>
+        <v>410.4631479467746</v>
       </c>
       <c r="E46" t="n">
-        <v>295.3131703400084</v>
+        <v>410.4631479467746</v>
       </c>
       <c r="F46" t="n">
-        <v>148.423222842098</v>
+        <v>402.6593141106982</v>
       </c>
       <c r="G46" t="n">
-        <v>93.73723964344738</v>
+        <v>235.4617848231184</v>
       </c>
       <c r="H46" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="I46" t="n">
-        <v>93.73723964344738</v>
+        <v>93.73723964344732</v>
       </c>
       <c r="J46" t="n">
-        <v>173.8741688132297</v>
+        <v>173.8741688132295</v>
       </c>
       <c r="K46" t="n">
-        <v>435.4005972446804</v>
+        <v>435.4005972446802</v>
       </c>
       <c r="L46" t="n">
-        <v>825.5908198420045</v>
+        <v>825.5908198420041</v>
       </c>
       <c r="M46" t="n">
-        <v>1247.38082395924</v>
+        <v>1247.380823959239</v>
       </c>
       <c r="N46" t="n">
-        <v>1664.576220947434</v>
+        <v>1664.576220947433</v>
       </c>
       <c r="O46" t="n">
-        <v>2033.907399583268</v>
+        <v>2033.907399583266</v>
       </c>
       <c r="P46" t="n">
-        <v>2326.413344610054</v>
+        <v>2326.413344610053</v>
       </c>
       <c r="Q46" t="n">
-        <v>2445.494219020784</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="R46" t="n">
-        <v>2445.494219020784</v>
+        <v>2445.494219020783</v>
       </c>
       <c r="S46" t="n">
-        <v>2445.494219020784</v>
+        <v>2262.614463632821</v>
       </c>
       <c r="T46" t="n">
-        <v>2225.886644033215</v>
+        <v>2043.006888645253</v>
       </c>
       <c r="U46" t="n">
-        <v>1936.811339377279</v>
+        <v>1753.931583989316</v>
       </c>
       <c r="V46" t="n">
-        <v>1682.126851171392</v>
+        <v>1499.247095783429</v>
       </c>
       <c r="W46" t="n">
-        <v>1392.709681134431</v>
+        <v>1209.829925746469</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.720130236414</v>
+        <v>981.8403748484513</v>
       </c>
       <c r="Y46" t="n">
-        <v>943.9275510928838</v>
+        <v>761.0477957049212</v>
       </c>
     </row>
   </sheetData>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="P3" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.9418658837474</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>324.971585371661</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>80.25393285255632</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.15115612740817</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>191.6652090435728</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>370.0125457369155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>58.40243569784556</v>
+        <v>64.03894726927341</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>76.89380035138191</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>45.35834646997128</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>58.15861609783454</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.94407426418034</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>275.8186544966419</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>90.30709249021717</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.95425662944757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.974294488193209</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.974294488196804</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>67.02127963223514</v>
+        <v>126.9118344674188</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H25" t="n">
-        <v>140.3072997278743</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I25" t="n">
-        <v>81.30841035179633</v>
+        <v>81.30841035179635</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.43890183961371</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.974294488195881</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.974294488193493</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>67.02127963223514</v>
+        <v>46.20842118017735</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.3072997278743</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I28" t="n">
-        <v>81.30841035179633</v>
+        <v>81.30841035179635</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.974294488195881</v>
       </c>
       <c r="H29" t="n">
-        <v>3.974294488193209</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.525553994704</v>
+        <v>111.3864306280407</v>
       </c>
       <c r="H31" t="n">
-        <v>140.3072997278743</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I31" t="n">
-        <v>81.30841035179633</v>
+        <v>81.30841035179635</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.92968828410035</v>
+        <v>66.43890183961371</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3.974294488193323</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.974294488195909</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.30841035179633</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.43890183961368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>140.0215166936942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.5601365806193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.974294488193209</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.974294488195937</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>58.713106341898</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.30841035179633</v>
+        <v>81.30841035179635</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>31.94808058615079</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0509578340821</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.974294488195937</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.974294488193379</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>67.02127963223514</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.3072997278743</v>
+        <v>58.71310634189796</v>
       </c>
       <c r="I40" t="n">
-        <v>81.30841035179633</v>
+        <v>81.30841035179635</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.974294488193379</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3.974294488195881</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.3072997278743</v>
+        <v>58.71310634189796</v>
       </c>
       <c r="I43" t="n">
-        <v>81.30841035179633</v>
+        <v>81.30841035179635</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.43890183961368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>73.852735110027</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.974294488195994</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.974294488193166</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>137.6952525252156</v>
       </c>
       <c r="G46" t="n">
-        <v>111.3864306280399</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.3072997278743</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.30841035179633</v>
+        <v>81.30841035179635</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.43890183961368</v>
+        <v>66.43890183961371</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0509578340821</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956521.7049264695</v>
+        <v>956521.704926469</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956521.7049264694</v>
+        <v>956521.7049264692</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956521.7049264695</v>
+        <v>956521.7049264692</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>956521.7049264694</v>
+        <v>956521.704926469</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956521.7049264695</v>
+        <v>956521.7049264691</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956521.7049264694</v>
+        <v>956521.7049264691</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956521.7049264694</v>
+        <v>956521.704926469</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956521.7049264695</v>
+        <v>956521.704926469</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="H2" t="n">
         <v>392146.6638165589</v>
       </c>
       <c r="I2" t="n">
-        <v>463906.3246079747</v>
+        <v>463906.3246079748</v>
       </c>
       <c r="J2" t="n">
         <v>463906.3246079747</v>
       </c>
       <c r="K2" t="n">
-        <v>463906.324607975</v>
+        <v>463906.3246079748</v>
       </c>
       <c r="L2" t="n">
         <v>463906.3246079747</v>
       </c>
       <c r="M2" t="n">
-        <v>463906.3246079747</v>
+        <v>463906.3246079748</v>
       </c>
       <c r="N2" t="n">
-        <v>463906.3246079747</v>
+        <v>463906.3246079748</v>
       </c>
       <c r="O2" t="n">
-        <v>463906.3246079747</v>
+        <v>463906.3246079748</v>
       </c>
       <c r="P2" t="n">
-        <v>463906.3246079747</v>
+        <v>463906.3246079748</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>299319.5565061393</v>
+        <v>299319.5565061388</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26444,22 +26444,22 @@
         <v>9336.684115502379</v>
       </c>
       <c r="K4" t="n">
-        <v>9336.684115502379</v>
+        <v>9336.684115502378</v>
       </c>
       <c r="L4" t="n">
-        <v>9336.684115502379</v>
+        <v>9336.684115502378</v>
       </c>
       <c r="M4" t="n">
-        <v>9336.684115502379</v>
+        <v>9336.684115502378</v>
       </c>
       <c r="N4" t="n">
-        <v>9336.684115502379</v>
+        <v>9336.684115502378</v>
       </c>
       <c r="O4" t="n">
-        <v>9336.684115502379</v>
+        <v>9336.684115502378</v>
       </c>
       <c r="P4" t="n">
-        <v>9336.684115502379</v>
+        <v>9336.684115502378</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>101045.0534810301</v>
+        <v>101045.05348103</v>
       </c>
       <c r="J5" t="n">
-        <v>101045.0534810301</v>
+        <v>101045.05348103</v>
       </c>
       <c r="K5" t="n">
-        <v>101045.0534810301</v>
+        <v>101045.05348103</v>
       </c>
       <c r="L5" t="n">
-        <v>101045.0534810301</v>
+        <v>101045.05348103</v>
       </c>
       <c r="M5" t="n">
-        <v>101045.0534810301</v>
+        <v>101045.05348103</v>
       </c>
       <c r="N5" t="n">
-        <v>101045.0534810301</v>
+        <v>101045.05348103</v>
       </c>
       <c r="O5" t="n">
-        <v>101045.0534810301</v>
+        <v>101045.05348103</v>
       </c>
       <c r="P5" t="n">
-        <v>101045.0534810301</v>
+        <v>101045.05348103</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872316.8120359039</v>
+        <v>-872316.8120359037</v>
       </c>
       <c r="C6" t="n">
-        <v>242434.971540016</v>
+        <v>242434.9715400157</v>
       </c>
       <c r="D6" t="n">
-        <v>242434.9715400158</v>
+        <v>242434.9715400159</v>
       </c>
       <c r="E6" t="n">
-        <v>123130.6950028346</v>
+        <v>126259.2653710899</v>
       </c>
       <c r="F6" t="n">
-        <v>305203.6748200253</v>
+        <v>308332.2451882804</v>
       </c>
       <c r="G6" t="n">
-        <v>305203.6748200253</v>
+        <v>308332.2451882804</v>
       </c>
       <c r="H6" t="n">
-        <v>305203.6748200253</v>
+        <v>308332.2451882803</v>
       </c>
       <c r="I6" t="n">
-        <v>53848.82645904261</v>
+        <v>54169.41010067763</v>
       </c>
       <c r="J6" t="n">
-        <v>185563.2051551994</v>
+        <v>185883.7887968337</v>
       </c>
       <c r="K6" t="n">
-        <v>353168.3829651822</v>
+        <v>353488.9666068164</v>
       </c>
       <c r="L6" t="n">
-        <v>353168.3829651819</v>
+        <v>353488.9666068163</v>
       </c>
       <c r="M6" t="n">
-        <v>305616.117171767</v>
+        <v>305936.7008134016</v>
       </c>
       <c r="N6" t="n">
-        <v>353168.382965182</v>
+        <v>353488.9666068164</v>
       </c>
       <c r="O6" t="n">
-        <v>353168.382965182</v>
+        <v>353488.9666068164</v>
       </c>
       <c r="P6" t="n">
-        <v>353168.382965182</v>
+        <v>353488.9666068164</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26810,28 +26810,28 @@
         <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>1171.715495543092</v>
+        <v>1171.715495543091</v>
       </c>
       <c r="J4" t="n">
-        <v>1171.715495543092</v>
+        <v>1171.715495543091</v>
       </c>
       <c r="K4" t="n">
-        <v>1171.715495543092</v>
+        <v>1171.715495543091</v>
       </c>
       <c r="L4" t="n">
-        <v>1171.715495543092</v>
+        <v>1171.715495543091</v>
       </c>
       <c r="M4" t="n">
-        <v>1171.715495543092</v>
+        <v>1171.715495543091</v>
       </c>
       <c r="N4" t="n">
-        <v>1171.715495543092</v>
+        <v>1171.715495543091</v>
       </c>
       <c r="O4" t="n">
-        <v>1171.715495543092</v>
+        <v>1171.715495543091</v>
       </c>
       <c r="P4" t="n">
-        <v>1171.715495543092</v>
+        <v>1171.715495543091</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>277.413728397989</v>
+        <v>277.4137283979885</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>340.3140401407994</v>
+        <v>340.3140401407985</v>
       </c>
       <c r="J4" t="n">
         <v>640.5848321000387</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.12488461105409</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>203.5983603104239</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>48.18758571691316</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>83.98281267668651</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>47.99309502253652</v>
       </c>
       <c r="H5" t="n">
-        <v>175.7842648993691</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>80.8509579418146</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>72.41405957842287</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>140.9940170805916</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>143.0637671232916</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.69705846816302</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.496242930618236</v>
+        <v>5.496242930618235</v>
       </c>
       <c r="H23" t="n">
-        <v>56.28839791319403</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I23" t="n">
-        <v>211.8939055826598</v>
+        <v>211.8939055826597</v>
       </c>
       <c r="J23" t="n">
-        <v>466.4867484325599</v>
+        <v>466.4867484325598</v>
       </c>
       <c r="K23" t="n">
-        <v>699.14271168563</v>
+        <v>699.1427116856298</v>
       </c>
       <c r="L23" t="n">
-        <v>867.348356273538</v>
+        <v>867.3483562735378</v>
       </c>
       <c r="M23" t="n">
-        <v>965.09216649092</v>
+        <v>965.0921664909197</v>
       </c>
       <c r="N23" t="n">
-        <v>980.7083667175392</v>
+        <v>980.7083667175389</v>
       </c>
       <c r="O23" t="n">
-        <v>926.0551010762041</v>
+        <v>926.0551010762038</v>
       </c>
       <c r="P23" t="n">
-        <v>790.3666037265663</v>
+        <v>790.3666037265659</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.5324037738004</v>
+        <v>593.5324037738003</v>
       </c>
       <c r="R23" t="n">
-        <v>345.2533699904481</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S23" t="n">
-        <v>125.2456357814632</v>
+        <v>125.2456357814631</v>
       </c>
       <c r="T23" t="n">
-        <v>24.05980342878134</v>
+        <v>24.05980342878133</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4396994344494588</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.940749224622769</v>
+        <v>2.940749224622768</v>
       </c>
       <c r="H24" t="n">
-        <v>28.40144645885675</v>
+        <v>28.40144645885674</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2494798828453</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K24" t="n">
-        <v>474.8665096620022</v>
+        <v>474.866509662002</v>
       </c>
       <c r="L24" t="n">
-        <v>638.5166244076763</v>
+        <v>638.5166244076761</v>
       </c>
       <c r="M24" t="n">
-        <v>745.1187838002514</v>
+        <v>745.1187838002512</v>
       </c>
       <c r="N24" t="n">
-        <v>764.8398608373052</v>
+        <v>596.9341509504659</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5431489342272</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.5541216737986</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.62312704507639</v>
+        <v>54.62312704507638</v>
       </c>
       <c r="T24" t="n">
-        <v>11.85328305889616</v>
+        <v>11.85328305889615</v>
       </c>
       <c r="U24" t="n">
         <v>0.1934703437251822</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.46542536375478</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H25" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I25" t="n">
-        <v>74.14206457546196</v>
+        <v>74.14206457546193</v>
       </c>
       <c r="J25" t="n">
         <v>174.3055732174629</v>
@@ -32873,34 +32873,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L25" t="n">
-        <v>366.5415127167789</v>
+        <v>366.5415127167788</v>
       </c>
       <c r="M25" t="n">
-        <v>386.4666322474879</v>
+        <v>386.4666322474878</v>
       </c>
       <c r="N25" t="n">
-        <v>377.2773195280386</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O25" t="n">
-        <v>348.4766686878122</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P25" t="n">
-        <v>298.1819912672144</v>
+        <v>298.1819912672142</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.4457547776844</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R25" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S25" t="n">
-        <v>42.96564020289011</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T25" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1344777471138973</v>
+        <v>0.1344777471138972</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.496242930618236</v>
+        <v>5.496242930618235</v>
       </c>
       <c r="H26" t="n">
-        <v>56.28839791319403</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I26" t="n">
-        <v>211.8939055826598</v>
+        <v>211.8939055826597</v>
       </c>
       <c r="J26" t="n">
-        <v>466.4867484325599</v>
+        <v>466.4867484325598</v>
       </c>
       <c r="K26" t="n">
-        <v>699.14271168563</v>
+        <v>699.1427116856298</v>
       </c>
       <c r="L26" t="n">
-        <v>867.348356273538</v>
+        <v>867.3483562735378</v>
       </c>
       <c r="M26" t="n">
-        <v>965.09216649092</v>
+        <v>965.0921664909197</v>
       </c>
       <c r="N26" t="n">
-        <v>980.7083667175392</v>
+        <v>980.7083667175389</v>
       </c>
       <c r="O26" t="n">
-        <v>926.0551010762041</v>
+        <v>926.0551010762038</v>
       </c>
       <c r="P26" t="n">
-        <v>790.3666037265663</v>
+        <v>790.3666037265659</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.5324037738004</v>
+        <v>593.5324037738003</v>
       </c>
       <c r="R26" t="n">
-        <v>345.2533699904481</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S26" t="n">
-        <v>125.2456357814632</v>
+        <v>125.2456357814631</v>
       </c>
       <c r="T26" t="n">
-        <v>24.05980342878134</v>
+        <v>24.05980342878133</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4396994344494588</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.940749224622769</v>
+        <v>2.940749224622768</v>
       </c>
       <c r="H27" t="n">
-        <v>28.40144645885675</v>
+        <v>28.40144645885674</v>
       </c>
       <c r="I27" t="n">
-        <v>101.2494798828453</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.8363116122766</v>
       </c>
       <c r="K27" t="n">
-        <v>474.8665096620022</v>
+        <v>474.866509662002</v>
       </c>
       <c r="L27" t="n">
-        <v>638.5166244076763</v>
+        <v>638.5166244076761</v>
       </c>
       <c r="M27" t="n">
-        <v>745.1187838002514</v>
+        <v>745.1187838002512</v>
       </c>
       <c r="N27" t="n">
-        <v>764.8398608373052</v>
+        <v>596.9341509504659</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5431489342272</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.5541216737986</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.62312704507639</v>
+        <v>54.62312704507638</v>
       </c>
       <c r="T27" t="n">
-        <v>11.85328305889616</v>
+        <v>11.85328305889615</v>
       </c>
       <c r="U27" t="n">
         <v>0.1934703437251822</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.46542536375478</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H28" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I28" t="n">
-        <v>74.14206457546196</v>
+        <v>74.14206457546193</v>
       </c>
       <c r="J28" t="n">
         <v>174.3055732174629</v>
@@ -33110,34 +33110,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L28" t="n">
-        <v>366.5415127167789</v>
+        <v>366.5415127167788</v>
       </c>
       <c r="M28" t="n">
-        <v>386.4666322474879</v>
+        <v>386.4666322474878</v>
       </c>
       <c r="N28" t="n">
-        <v>377.2773195280386</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O28" t="n">
-        <v>348.4766686878122</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P28" t="n">
-        <v>298.1819912672144</v>
+        <v>298.1819912672142</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.4457547776844</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R28" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S28" t="n">
-        <v>42.96564020289011</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T28" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1344777471138973</v>
+        <v>0.1344777471138972</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.496242930618236</v>
+        <v>5.496242930618235</v>
       </c>
       <c r="H29" t="n">
-        <v>56.28839791319403</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I29" t="n">
-        <v>211.8939055826598</v>
+        <v>211.8939055826597</v>
       </c>
       <c r="J29" t="n">
-        <v>466.4867484325599</v>
+        <v>466.4867484325598</v>
       </c>
       <c r="K29" t="n">
-        <v>699.14271168563</v>
+        <v>699.1427116856298</v>
       </c>
       <c r="L29" t="n">
-        <v>867.348356273538</v>
+        <v>867.3483562735378</v>
       </c>
       <c r="M29" t="n">
-        <v>965.09216649092</v>
+        <v>965.0921664909197</v>
       </c>
       <c r="N29" t="n">
-        <v>980.7083667175392</v>
+        <v>980.7083667175389</v>
       </c>
       <c r="O29" t="n">
-        <v>926.0551010762041</v>
+        <v>926.0551010762038</v>
       </c>
       <c r="P29" t="n">
-        <v>790.3666037265663</v>
+        <v>790.3666037265659</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.5324037738004</v>
+        <v>593.5324037738003</v>
       </c>
       <c r="R29" t="n">
-        <v>345.2533699904481</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S29" t="n">
-        <v>125.2456357814632</v>
+        <v>125.2456357814631</v>
       </c>
       <c r="T29" t="n">
-        <v>24.05980342878134</v>
+        <v>24.05980342878133</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4396994344494588</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.940749224622769</v>
+        <v>2.940749224622768</v>
       </c>
       <c r="H30" t="n">
-        <v>28.40144645885675</v>
+        <v>28.40144645885674</v>
       </c>
       <c r="I30" t="n">
         <v>101.2494798828453</v>
@@ -33265,19 +33265,19 @@
         <v>277.8363116122766</v>
       </c>
       <c r="K30" t="n">
-        <v>474.8665096620022</v>
+        <v>474.866509662002</v>
       </c>
       <c r="L30" t="n">
-        <v>638.5166244076763</v>
+        <v>638.5166244076761</v>
       </c>
       <c r="M30" t="n">
-        <v>745.1187838002514</v>
+        <v>745.1187838002512</v>
       </c>
       <c r="N30" t="n">
-        <v>764.8398608373052</v>
+        <v>764.839860837305</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5431489342272</v>
+        <v>400.5431489342286</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.62312704507639</v>
+        <v>54.62312704507638</v>
       </c>
       <c r="T30" t="n">
-        <v>11.85328305889616</v>
+        <v>11.85328305889615</v>
       </c>
       <c r="U30" t="n">
         <v>0.1934703437251822</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.46542536375478</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H31" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I31" t="n">
-        <v>74.14206457546196</v>
+        <v>74.14206457546193</v>
       </c>
       <c r="J31" t="n">
         <v>174.3055732174629</v>
@@ -33347,34 +33347,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L31" t="n">
-        <v>366.5415127167789</v>
+        <v>366.5415127167788</v>
       </c>
       <c r="M31" t="n">
-        <v>386.4666322474879</v>
+        <v>386.4666322474878</v>
       </c>
       <c r="N31" t="n">
-        <v>377.2773195280386</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O31" t="n">
-        <v>348.4766686878122</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P31" t="n">
-        <v>298.1819912672144</v>
+        <v>298.1819912672142</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.4457547776844</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R31" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S31" t="n">
-        <v>42.96564020289011</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T31" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1344777471138973</v>
+        <v>0.1344777471138972</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.496242930618236</v>
+        <v>5.496242930618235</v>
       </c>
       <c r="H32" t="n">
-        <v>56.28839791319403</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I32" t="n">
-        <v>211.8939055826598</v>
+        <v>211.8939055826597</v>
       </c>
       <c r="J32" t="n">
-        <v>466.4867484325599</v>
+        <v>466.4867484325598</v>
       </c>
       <c r="K32" t="n">
-        <v>699.14271168563</v>
+        <v>699.1427116856298</v>
       </c>
       <c r="L32" t="n">
-        <v>867.348356273538</v>
+        <v>867.3483562735378</v>
       </c>
       <c r="M32" t="n">
-        <v>965.09216649092</v>
+        <v>965.0921664909197</v>
       </c>
       <c r="N32" t="n">
-        <v>980.7083667175392</v>
+        <v>980.7083667175389</v>
       </c>
       <c r="O32" t="n">
-        <v>926.0551010762041</v>
+        <v>926.0551010762038</v>
       </c>
       <c r="P32" t="n">
-        <v>790.3666037265663</v>
+        <v>790.3666037265659</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.5324037738004</v>
+        <v>593.5324037738003</v>
       </c>
       <c r="R32" t="n">
-        <v>345.2533699904481</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S32" t="n">
-        <v>125.2456357814632</v>
+        <v>125.2456357814631</v>
       </c>
       <c r="T32" t="n">
-        <v>24.05980342878134</v>
+        <v>24.05980342878133</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4396994344494588</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.940749224622769</v>
+        <v>2.940749224622768</v>
       </c>
       <c r="H33" t="n">
-        <v>28.40144645885675</v>
+        <v>28.40144645885674</v>
       </c>
       <c r="I33" t="n">
         <v>101.2494798828453</v>
@@ -33502,19 +33502,19 @@
         <v>277.8363116122766</v>
       </c>
       <c r="K33" t="n">
-        <v>474.8665096620022</v>
+        <v>474.866509662002</v>
       </c>
       <c r="L33" t="n">
-        <v>638.5166244076763</v>
+        <v>638.5166244076761</v>
       </c>
       <c r="M33" t="n">
-        <v>745.1187838002514</v>
+        <v>745.1187838002512</v>
       </c>
       <c r="N33" t="n">
-        <v>764.8398608373052</v>
+        <v>764.839860837305</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5431489342272</v>
+        <v>400.5431489342286</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.62312704507639</v>
+        <v>54.62312704507638</v>
       </c>
       <c r="T33" t="n">
-        <v>11.85328305889616</v>
+        <v>11.85328305889615</v>
       </c>
       <c r="U33" t="n">
         <v>0.1934703437251822</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.46542536375478</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H34" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I34" t="n">
-        <v>74.14206457546196</v>
+        <v>74.14206457546193</v>
       </c>
       <c r="J34" t="n">
         <v>174.3055732174629</v>
@@ -33584,34 +33584,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L34" t="n">
-        <v>366.5415127167789</v>
+        <v>366.5415127167788</v>
       </c>
       <c r="M34" t="n">
-        <v>386.4666322474879</v>
+        <v>386.4666322474878</v>
       </c>
       <c r="N34" t="n">
-        <v>377.2773195280386</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O34" t="n">
-        <v>348.4766686878122</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P34" t="n">
-        <v>298.1819912672144</v>
+        <v>298.1819912672142</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.4457547776844</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R34" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S34" t="n">
-        <v>42.96564020289011</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T34" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1344777471138973</v>
+        <v>0.1344777471138972</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.496242930618236</v>
+        <v>5.496242930618235</v>
       </c>
       <c r="H35" t="n">
-        <v>56.28839791319403</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I35" t="n">
-        <v>211.8939055826598</v>
+        <v>211.8939055826597</v>
       </c>
       <c r="J35" t="n">
-        <v>466.4867484325599</v>
+        <v>466.4867484325598</v>
       </c>
       <c r="K35" t="n">
-        <v>699.14271168563</v>
+        <v>699.1427116856298</v>
       </c>
       <c r="L35" t="n">
-        <v>867.348356273538</v>
+        <v>867.3483562735378</v>
       </c>
       <c r="M35" t="n">
-        <v>965.09216649092</v>
+        <v>965.0921664909197</v>
       </c>
       <c r="N35" t="n">
-        <v>980.7083667175392</v>
+        <v>980.7083667175389</v>
       </c>
       <c r="O35" t="n">
-        <v>926.0551010762041</v>
+        <v>926.0551010762038</v>
       </c>
       <c r="P35" t="n">
-        <v>790.3666037265663</v>
+        <v>790.3666037265659</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.5324037738004</v>
+        <v>593.5324037738003</v>
       </c>
       <c r="R35" t="n">
-        <v>345.2533699904481</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S35" t="n">
-        <v>125.2456357814632</v>
+        <v>125.2456357814631</v>
       </c>
       <c r="T35" t="n">
-        <v>24.05980342878134</v>
+        <v>24.05980342878133</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4396994344494588</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.940749224622769</v>
+        <v>2.940749224622768</v>
       </c>
       <c r="H36" t="n">
-        <v>28.40144645885675</v>
+        <v>28.40144645885674</v>
       </c>
       <c r="I36" t="n">
         <v>101.2494798828453</v>
@@ -33739,19 +33739,19 @@
         <v>277.8363116122766</v>
       </c>
       <c r="K36" t="n">
-        <v>474.8665096620022</v>
+        <v>474.866509662002</v>
       </c>
       <c r="L36" t="n">
-        <v>638.5166244076763</v>
+        <v>638.5166244076761</v>
       </c>
       <c r="M36" t="n">
-        <v>745.1187838002514</v>
+        <v>745.1187838002512</v>
       </c>
       <c r="N36" t="n">
-        <v>764.8398608373052</v>
+        <v>764.839860837305</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5431489342272</v>
+        <v>400.5431489342286</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.62312704507639</v>
+        <v>54.62312704507638</v>
       </c>
       <c r="T36" t="n">
-        <v>11.85328305889616</v>
+        <v>11.85328305889615</v>
       </c>
       <c r="U36" t="n">
         <v>0.1934703437251822</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.46542536375478</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H37" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I37" t="n">
-        <v>74.14206457546196</v>
+        <v>74.14206457546193</v>
       </c>
       <c r="J37" t="n">
         <v>174.3055732174629</v>
@@ -33821,34 +33821,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L37" t="n">
-        <v>366.5415127167789</v>
+        <v>366.5415127167788</v>
       </c>
       <c r="M37" t="n">
-        <v>386.4666322474879</v>
+        <v>386.4666322474878</v>
       </c>
       <c r="N37" t="n">
-        <v>377.2773195280386</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O37" t="n">
-        <v>348.4766686878122</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P37" t="n">
-        <v>298.1819912672144</v>
+        <v>298.1819912672142</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.4457547776844</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R37" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S37" t="n">
-        <v>42.96564020289011</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T37" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1344777471138973</v>
+        <v>0.1344777471138972</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.496242930618236</v>
+        <v>5.496242930618235</v>
       </c>
       <c r="H38" t="n">
-        <v>56.28839791319403</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I38" t="n">
-        <v>211.8939055826598</v>
+        <v>211.8939055826597</v>
       </c>
       <c r="J38" t="n">
-        <v>466.4867484325599</v>
+        <v>466.4867484325598</v>
       </c>
       <c r="K38" t="n">
-        <v>699.14271168563</v>
+        <v>699.1427116856298</v>
       </c>
       <c r="L38" t="n">
-        <v>867.348356273538</v>
+        <v>867.3483562735378</v>
       </c>
       <c r="M38" t="n">
-        <v>965.09216649092</v>
+        <v>965.0921664909197</v>
       </c>
       <c r="N38" t="n">
-        <v>980.7083667175392</v>
+        <v>980.7083667175389</v>
       </c>
       <c r="O38" t="n">
-        <v>926.0551010762041</v>
+        <v>926.0551010762038</v>
       </c>
       <c r="P38" t="n">
-        <v>790.3666037265663</v>
+        <v>790.3666037265659</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.5324037738004</v>
+        <v>593.5324037738003</v>
       </c>
       <c r="R38" t="n">
-        <v>345.2533699904481</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S38" t="n">
-        <v>125.2456357814632</v>
+        <v>125.2456357814631</v>
       </c>
       <c r="T38" t="n">
-        <v>24.05980342878134</v>
+        <v>24.05980342878133</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4396994344494588</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.940749224622769</v>
+        <v>2.940749224622768</v>
       </c>
       <c r="H39" t="n">
-        <v>28.40144645885675</v>
+        <v>28.40144645885674</v>
       </c>
       <c r="I39" t="n">
         <v>101.2494798828453</v>
@@ -33976,19 +33976,19 @@
         <v>277.8363116122766</v>
       </c>
       <c r="K39" t="n">
-        <v>474.8665096620022</v>
+        <v>474.866509662002</v>
       </c>
       <c r="L39" t="n">
-        <v>638.5166244076763</v>
+        <v>638.5166244076761</v>
       </c>
       <c r="M39" t="n">
-        <v>745.1187838002514</v>
+        <v>745.1187838002512</v>
       </c>
       <c r="N39" t="n">
-        <v>764.8398608373052</v>
+        <v>764.839860837305</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5431489342272</v>
+        <v>400.5431489342286</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.62312704507639</v>
+        <v>54.62312704507638</v>
       </c>
       <c r="T39" t="n">
-        <v>11.85328305889616</v>
+        <v>11.85328305889615</v>
       </c>
       <c r="U39" t="n">
         <v>0.1934703437251822</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.46542536375478</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H40" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I40" t="n">
-        <v>74.14206457546196</v>
+        <v>74.14206457546193</v>
       </c>
       <c r="J40" t="n">
         <v>174.3055732174629</v>
@@ -34058,34 +34058,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L40" t="n">
-        <v>366.5415127167789</v>
+        <v>366.5415127167788</v>
       </c>
       <c r="M40" t="n">
-        <v>386.4666322474879</v>
+        <v>386.4666322474878</v>
       </c>
       <c r="N40" t="n">
-        <v>377.2773195280386</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O40" t="n">
-        <v>348.4766686878122</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P40" t="n">
-        <v>298.1819912672144</v>
+        <v>298.1819912672142</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.4457547776844</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R40" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S40" t="n">
-        <v>42.96564020289011</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T40" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1344777471138973</v>
+        <v>0.1344777471138972</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.496242930618236</v>
+        <v>5.496242930618235</v>
       </c>
       <c r="H41" t="n">
-        <v>56.28839791319403</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I41" t="n">
-        <v>211.8939055826598</v>
+        <v>211.8939055826597</v>
       </c>
       <c r="J41" t="n">
-        <v>466.4867484325599</v>
+        <v>466.4867484325598</v>
       </c>
       <c r="K41" t="n">
-        <v>699.14271168563</v>
+        <v>699.1427116856298</v>
       </c>
       <c r="L41" t="n">
-        <v>867.348356273538</v>
+        <v>867.3483562735378</v>
       </c>
       <c r="M41" t="n">
-        <v>965.09216649092</v>
+        <v>965.0921664909197</v>
       </c>
       <c r="N41" t="n">
-        <v>980.7083667175392</v>
+        <v>980.7083667175389</v>
       </c>
       <c r="O41" t="n">
-        <v>926.0551010762041</v>
+        <v>926.0551010762038</v>
       </c>
       <c r="P41" t="n">
-        <v>790.3666037265663</v>
+        <v>790.3666037265659</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.5324037738004</v>
+        <v>593.5324037738003</v>
       </c>
       <c r="R41" t="n">
-        <v>345.2533699904481</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S41" t="n">
-        <v>125.2456357814632</v>
+        <v>125.2456357814631</v>
       </c>
       <c r="T41" t="n">
-        <v>24.05980342878134</v>
+        <v>24.05980342878133</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4396994344494588</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.940749224622769</v>
+        <v>2.940749224622768</v>
       </c>
       <c r="H42" t="n">
-        <v>28.40144645885675</v>
+        <v>28.40144645885674</v>
       </c>
       <c r="I42" t="n">
         <v>101.2494798828453</v>
@@ -34213,19 +34213,19 @@
         <v>277.8363116122766</v>
       </c>
       <c r="K42" t="n">
-        <v>474.8665096620022</v>
+        <v>474.866509662002</v>
       </c>
       <c r="L42" t="n">
-        <v>638.5166244076763</v>
+        <v>638.5166244076761</v>
       </c>
       <c r="M42" t="n">
-        <v>745.1187838002514</v>
+        <v>745.1187838002512</v>
       </c>
       <c r="N42" t="n">
-        <v>764.8398608373052</v>
+        <v>764.839860837305</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5431489342272</v>
+        <v>400.5431489342286</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.62312704507639</v>
+        <v>54.62312704507638</v>
       </c>
       <c r="T42" t="n">
-        <v>11.85328305889616</v>
+        <v>11.85328305889615</v>
       </c>
       <c r="U42" t="n">
         <v>0.1934703437251822</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.46542536375478</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H43" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I43" t="n">
-        <v>74.14206457546196</v>
+        <v>74.14206457546193</v>
       </c>
       <c r="J43" t="n">
         <v>174.3055732174629</v>
@@ -34295,34 +34295,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L43" t="n">
-        <v>366.5415127167789</v>
+        <v>366.5415127167788</v>
       </c>
       <c r="M43" t="n">
-        <v>386.4666322474879</v>
+        <v>386.4666322474878</v>
       </c>
       <c r="N43" t="n">
-        <v>377.2773195280386</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O43" t="n">
-        <v>348.4766686878122</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P43" t="n">
-        <v>298.1819912672144</v>
+        <v>298.1819912672142</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.4457547776844</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R43" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S43" t="n">
-        <v>42.96564020289011</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T43" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1344777471138973</v>
+        <v>0.1344777471138972</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.496242930618236</v>
+        <v>5.496242930618235</v>
       </c>
       <c r="H44" t="n">
-        <v>56.28839791319403</v>
+        <v>56.288397913194</v>
       </c>
       <c r="I44" t="n">
-        <v>211.8939055826598</v>
+        <v>211.8939055826597</v>
       </c>
       <c r="J44" t="n">
-        <v>466.4867484325599</v>
+        <v>466.4867484325598</v>
       </c>
       <c r="K44" t="n">
-        <v>699.14271168563</v>
+        <v>699.1427116856298</v>
       </c>
       <c r="L44" t="n">
-        <v>867.348356273538</v>
+        <v>867.3483562735378</v>
       </c>
       <c r="M44" t="n">
-        <v>965.09216649092</v>
+        <v>965.0921664909197</v>
       </c>
       <c r="N44" t="n">
-        <v>980.7083667175392</v>
+        <v>980.7083667175389</v>
       </c>
       <c r="O44" t="n">
-        <v>926.0551010762041</v>
+        <v>926.0551010762038</v>
       </c>
       <c r="P44" t="n">
-        <v>790.3666037265663</v>
+        <v>790.3666037265659</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.5324037738004</v>
+        <v>593.5324037738003</v>
       </c>
       <c r="R44" t="n">
-        <v>345.2533699904481</v>
+        <v>345.2533699904479</v>
       </c>
       <c r="S44" t="n">
-        <v>125.2456357814632</v>
+        <v>125.2456357814631</v>
       </c>
       <c r="T44" t="n">
-        <v>24.05980342878134</v>
+        <v>24.05980342878133</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4396994344494588</v>
+        <v>0.4396994344494586</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.940749224622769</v>
+        <v>2.940749224622768</v>
       </c>
       <c r="H45" t="n">
-        <v>28.40144645885675</v>
+        <v>28.40144645885674</v>
       </c>
       <c r="I45" t="n">
         <v>101.2494798828453</v>
@@ -34450,19 +34450,19 @@
         <v>277.8363116122766</v>
       </c>
       <c r="K45" t="n">
-        <v>474.8665096620022</v>
+        <v>474.866509662002</v>
       </c>
       <c r="L45" t="n">
-        <v>638.5166244076763</v>
+        <v>638.5166244076761</v>
       </c>
       <c r="M45" t="n">
-        <v>745.1187838002514</v>
+        <v>745.1187838002512</v>
       </c>
       <c r="N45" t="n">
-        <v>764.8398608373052</v>
+        <v>764.839860837305</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5431489342272</v>
+        <v>400.5431489342286</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.62312704507639</v>
+        <v>54.62312704507638</v>
       </c>
       <c r="T45" t="n">
-        <v>11.85328305889616</v>
+        <v>11.85328305889615</v>
       </c>
       <c r="U45" t="n">
         <v>0.1934703437251822</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.46542536375478</v>
+        <v>2.465425363754779</v>
       </c>
       <c r="H46" t="n">
         <v>21.91987277956524</v>
       </c>
       <c r="I46" t="n">
-        <v>74.14206457546196</v>
+        <v>74.14206457546193</v>
       </c>
       <c r="J46" t="n">
         <v>174.3055732174629</v>
@@ -34532,34 +34532,34 @@
         <v>286.4376013526007</v>
       </c>
       <c r="L46" t="n">
-        <v>366.5415127167789</v>
+        <v>366.5415127167788</v>
       </c>
       <c r="M46" t="n">
-        <v>386.4666322474879</v>
+        <v>386.4666322474878</v>
       </c>
       <c r="N46" t="n">
-        <v>377.2773195280386</v>
+        <v>377.2773195280384</v>
       </c>
       <c r="O46" t="n">
-        <v>348.4766686878122</v>
+        <v>348.476668687812</v>
       </c>
       <c r="P46" t="n">
-        <v>298.1819912672144</v>
+        <v>298.1819912672142</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.4457547776844</v>
+        <v>206.4457547776843</v>
       </c>
       <c r="R46" t="n">
         <v>110.8544895375558</v>
       </c>
       <c r="S46" t="n">
-        <v>42.96564020289011</v>
+        <v>42.96564020289009</v>
       </c>
       <c r="T46" t="n">
         <v>10.5340901905886</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1344777471138973</v>
+        <v>0.1344777471138972</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>600.4551148476376</v>
       </c>
       <c r="P3" t="n">
-        <v>304.632674239197</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.4225882146019</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.418016012253844</v>
+        <v>1.418016012253759</v>
       </c>
       <c r="J23" t="n">
-        <v>285.4408439058736</v>
+        <v>285.4408439058735</v>
       </c>
       <c r="K23" t="n">
-        <v>479.0528606406495</v>
+        <v>479.0528606406493</v>
       </c>
       <c r="L23" t="n">
-        <v>631.5819413035508</v>
+        <v>631.5819413035506</v>
       </c>
       <c r="M23" t="n">
-        <v>734.7459332636473</v>
+        <v>734.745933263647</v>
       </c>
       <c r="N23" t="n">
-        <v>751.2953031209483</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O23" t="n">
-        <v>695.9568896545173</v>
+        <v>695.956889654517</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1336079712967</v>
+        <v>559.1336079712964</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.2267138993509</v>
+        <v>371.2267138993508</v>
       </c>
       <c r="R23" t="n">
-        <v>129.667832176316</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.727099882845351</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K24" t="n">
-        <v>337.0250706876432</v>
+        <v>337.025070687643</v>
       </c>
       <c r="L24" t="n">
-        <v>499.9622446278021</v>
+        <v>499.9622446278019</v>
       </c>
       <c r="M24" t="n">
-        <v>602.9847498782331</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N24" t="n">
-        <v>633.4981487539719</v>
+        <v>465.5924388671326</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9469044897828</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.5797142594683</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.94639310079017</v>
+        <v>80.94639310079012</v>
       </c>
       <c r="K25" t="n">
-        <v>264.1681095267179</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L25" t="n">
-        <v>394.131537977095</v>
+        <v>394.1315379770949</v>
       </c>
       <c r="M25" t="n">
-        <v>426.0505092093285</v>
+        <v>426.0505092093284</v>
       </c>
       <c r="N25" t="n">
-        <v>421.4094919072671</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O25" t="n">
-        <v>373.0617966018518</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P25" t="n">
-        <v>295.4605505321078</v>
+        <v>295.4605505321077</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.28371152599</v>
+        <v>120.2837115259899</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.418016012253844</v>
+        <v>1.418016012253759</v>
       </c>
       <c r="J26" t="n">
-        <v>285.4408439058736</v>
+        <v>285.4408439058735</v>
       </c>
       <c r="K26" t="n">
-        <v>479.0528606406495</v>
+        <v>479.0528606406493</v>
       </c>
       <c r="L26" t="n">
-        <v>631.5819413035508</v>
+        <v>631.5819413035506</v>
       </c>
       <c r="M26" t="n">
-        <v>734.7459332636473</v>
+        <v>734.745933263647</v>
       </c>
       <c r="N26" t="n">
-        <v>751.2953031209483</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O26" t="n">
-        <v>695.9568896545173</v>
+        <v>695.956889654517</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1336079712967</v>
+        <v>559.1336079712964</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.2267138993509</v>
+        <v>371.2267138993508</v>
       </c>
       <c r="R26" t="n">
-        <v>129.667832176316</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.727099882845351</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K27" t="n">
-        <v>337.0250706876432</v>
+        <v>337.025070687643</v>
       </c>
       <c r="L27" t="n">
-        <v>499.9622446278021</v>
+        <v>499.9622446278019</v>
       </c>
       <c r="M27" t="n">
-        <v>602.9847498782331</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N27" t="n">
-        <v>633.4981487539719</v>
+        <v>465.5924388671326</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9469044897828</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.5797142594683</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.94639310079017</v>
+        <v>80.94639310079012</v>
       </c>
       <c r="K28" t="n">
-        <v>264.1681095267179</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L28" t="n">
-        <v>394.131537977095</v>
+        <v>394.1315379770949</v>
       </c>
       <c r="M28" t="n">
-        <v>426.0505092093285</v>
+        <v>426.0505092093284</v>
       </c>
       <c r="N28" t="n">
-        <v>421.4094919072671</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O28" t="n">
-        <v>373.0617966018518</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P28" t="n">
-        <v>295.4605505321078</v>
+        <v>295.4605505321077</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.28371152599</v>
+        <v>120.2837115259899</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.418016012253844</v>
+        <v>1.418016012253759</v>
       </c>
       <c r="J29" t="n">
-        <v>285.4408439058736</v>
+        <v>285.4408439058735</v>
       </c>
       <c r="K29" t="n">
-        <v>479.0528606406495</v>
+        <v>479.0528606406493</v>
       </c>
       <c r="L29" t="n">
-        <v>631.5819413035508</v>
+        <v>631.5819413035506</v>
       </c>
       <c r="M29" t="n">
-        <v>734.7459332636473</v>
+        <v>734.745933263647</v>
       </c>
       <c r="N29" t="n">
-        <v>751.2953031209483</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O29" t="n">
-        <v>695.9568896545173</v>
+        <v>695.956889654517</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1336079712967</v>
+        <v>559.1336079712964</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.2267138993509</v>
+        <v>371.2267138993508</v>
       </c>
       <c r="R29" t="n">
-        <v>129.667832176316</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.727099882845351</v>
+        <v>1.727099882845309</v>
       </c>
       <c r="J30" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K30" t="n">
-        <v>337.0250706876432</v>
+        <v>337.025070687643</v>
       </c>
       <c r="L30" t="n">
-        <v>499.9622446278021</v>
+        <v>499.9622446278019</v>
       </c>
       <c r="M30" t="n">
-        <v>602.9847498782331</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N30" t="n">
-        <v>633.4981487539719</v>
+        <v>633.4981487539717</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9469044897828</v>
+        <v>257.9469044897841</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.94639310079017</v>
+        <v>80.94639310079012</v>
       </c>
       <c r="K31" t="n">
-        <v>264.1681095267179</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L31" t="n">
-        <v>394.131537977095</v>
+        <v>394.1315379770949</v>
       </c>
       <c r="M31" t="n">
-        <v>426.0505092093285</v>
+        <v>426.0505092093284</v>
       </c>
       <c r="N31" t="n">
-        <v>421.4094919072671</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O31" t="n">
-        <v>373.0617966018518</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P31" t="n">
-        <v>295.4605505321078</v>
+        <v>295.4605505321077</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.28371152599</v>
+        <v>120.2837115259899</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.418016012253844</v>
+        <v>1.418016012253759</v>
       </c>
       <c r="J32" t="n">
-        <v>285.4408439058736</v>
+        <v>285.4408439058735</v>
       </c>
       <c r="K32" t="n">
-        <v>479.0528606406495</v>
+        <v>479.0528606406493</v>
       </c>
       <c r="L32" t="n">
-        <v>631.5819413035508</v>
+        <v>631.5819413035506</v>
       </c>
       <c r="M32" t="n">
-        <v>734.7459332636473</v>
+        <v>734.745933263647</v>
       </c>
       <c r="N32" t="n">
-        <v>751.2953031209483</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O32" t="n">
-        <v>695.9568896545173</v>
+        <v>695.956889654517</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1336079712967</v>
+        <v>559.1336079712964</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.2267138993509</v>
+        <v>371.2267138993508</v>
       </c>
       <c r="R32" t="n">
-        <v>129.667832176316</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.727099882845351</v>
+        <v>1.727099882845309</v>
       </c>
       <c r="J33" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K33" t="n">
-        <v>337.0250706876432</v>
+        <v>337.025070687643</v>
       </c>
       <c r="L33" t="n">
-        <v>499.9622446278021</v>
+        <v>499.9622446278019</v>
       </c>
       <c r="M33" t="n">
-        <v>602.9847498782331</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N33" t="n">
-        <v>633.4981487539719</v>
+        <v>633.4981487539717</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9469044897828</v>
+        <v>257.9469044897841</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.94639310079017</v>
+        <v>80.94639310079012</v>
       </c>
       <c r="K34" t="n">
-        <v>264.1681095267179</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L34" t="n">
-        <v>394.131537977095</v>
+        <v>394.1315379770949</v>
       </c>
       <c r="M34" t="n">
-        <v>426.0505092093285</v>
+        <v>426.0505092093284</v>
       </c>
       <c r="N34" t="n">
-        <v>421.4094919072671</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O34" t="n">
-        <v>373.0617966018518</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P34" t="n">
-        <v>295.4605505321078</v>
+        <v>295.4605505321077</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.28371152599</v>
+        <v>120.2837115259899</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.418016012253844</v>
+        <v>1.418016012253759</v>
       </c>
       <c r="J35" t="n">
-        <v>285.4408439058736</v>
+        <v>285.4408439058735</v>
       </c>
       <c r="K35" t="n">
-        <v>479.0528606406495</v>
+        <v>479.0528606406493</v>
       </c>
       <c r="L35" t="n">
-        <v>631.5819413035508</v>
+        <v>631.5819413035506</v>
       </c>
       <c r="M35" t="n">
-        <v>734.7459332636473</v>
+        <v>734.745933263647</v>
       </c>
       <c r="N35" t="n">
-        <v>751.2953031209483</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O35" t="n">
-        <v>695.9568896545173</v>
+        <v>695.956889654517</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1336079712967</v>
+        <v>559.1336079712964</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.2267138993509</v>
+        <v>371.2267138993508</v>
       </c>
       <c r="R35" t="n">
-        <v>129.667832176316</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.727099882845351</v>
+        <v>1.727099882845309</v>
       </c>
       <c r="J36" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K36" t="n">
-        <v>337.0250706876432</v>
+        <v>337.025070687643</v>
       </c>
       <c r="L36" t="n">
-        <v>499.9622446278021</v>
+        <v>499.9622446278019</v>
       </c>
       <c r="M36" t="n">
-        <v>602.9847498782331</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N36" t="n">
-        <v>633.4981487539719</v>
+        <v>633.4981487539717</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9469044897828</v>
+        <v>257.9469044897841</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.94639310079017</v>
+        <v>80.94639310079012</v>
       </c>
       <c r="K37" t="n">
-        <v>264.1681095267179</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L37" t="n">
-        <v>394.131537977095</v>
+        <v>394.1315379770949</v>
       </c>
       <c r="M37" t="n">
-        <v>426.0505092093285</v>
+        <v>426.0505092093284</v>
       </c>
       <c r="N37" t="n">
-        <v>421.4094919072671</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O37" t="n">
-        <v>373.0617966018518</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P37" t="n">
-        <v>295.4605505321078</v>
+        <v>295.4605505321077</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.28371152599</v>
+        <v>120.2837115259899</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.418016012253844</v>
+        <v>1.418016012253759</v>
       </c>
       <c r="J38" t="n">
-        <v>285.4408439058736</v>
+        <v>285.4408439058735</v>
       </c>
       <c r="K38" t="n">
-        <v>479.0528606406495</v>
+        <v>479.0528606406493</v>
       </c>
       <c r="L38" t="n">
-        <v>631.5819413035508</v>
+        <v>631.5819413035506</v>
       </c>
       <c r="M38" t="n">
-        <v>734.7459332636473</v>
+        <v>734.745933263647</v>
       </c>
       <c r="N38" t="n">
-        <v>751.2953031209483</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O38" t="n">
-        <v>695.9568896545173</v>
+        <v>695.956889654517</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1336079712967</v>
+        <v>559.1336079712964</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.2267138993509</v>
+        <v>371.2267138993508</v>
       </c>
       <c r="R38" t="n">
-        <v>129.667832176316</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.727099882845351</v>
+        <v>1.727099882845309</v>
       </c>
       <c r="J39" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K39" t="n">
-        <v>337.0250706876432</v>
+        <v>337.025070687643</v>
       </c>
       <c r="L39" t="n">
-        <v>499.9622446278021</v>
+        <v>499.9622446278019</v>
       </c>
       <c r="M39" t="n">
-        <v>602.9847498782331</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N39" t="n">
-        <v>633.4981487539719</v>
+        <v>633.4981487539717</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9469044897828</v>
+        <v>257.9469044897841</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.94639310079017</v>
+        <v>80.94639310079012</v>
       </c>
       <c r="K40" t="n">
-        <v>264.1681095267179</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L40" t="n">
-        <v>394.131537977095</v>
+        <v>394.1315379770949</v>
       </c>
       <c r="M40" t="n">
-        <v>426.0505092093285</v>
+        <v>426.0505092093284</v>
       </c>
       <c r="N40" t="n">
-        <v>421.4094919072671</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O40" t="n">
-        <v>373.0617966018518</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P40" t="n">
-        <v>295.4605505321078</v>
+        <v>295.4605505321077</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.28371152599</v>
+        <v>120.2837115259899</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.418016012253844</v>
+        <v>1.418016012253759</v>
       </c>
       <c r="J41" t="n">
-        <v>285.4408439058736</v>
+        <v>285.4408439058735</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0528606406495</v>
+        <v>479.0528606406493</v>
       </c>
       <c r="L41" t="n">
-        <v>631.5819413035508</v>
+        <v>631.5819413035506</v>
       </c>
       <c r="M41" t="n">
-        <v>734.7459332636473</v>
+        <v>734.745933263647</v>
       </c>
       <c r="N41" t="n">
-        <v>751.2953031209483</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O41" t="n">
-        <v>695.9568896545173</v>
+        <v>695.956889654517</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1336079712967</v>
+        <v>559.1336079712964</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.2267138993509</v>
+        <v>371.2267138993508</v>
       </c>
       <c r="R41" t="n">
-        <v>129.667832176316</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.727099882845351</v>
+        <v>1.727099882845309</v>
       </c>
       <c r="J42" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K42" t="n">
-        <v>337.0250706876432</v>
+        <v>337.025070687643</v>
       </c>
       <c r="L42" t="n">
-        <v>499.9622446278021</v>
+        <v>499.9622446278019</v>
       </c>
       <c r="M42" t="n">
-        <v>602.9847498782331</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N42" t="n">
-        <v>633.4981487539719</v>
+        <v>633.4981487539717</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9469044897828</v>
+        <v>257.9469044897841</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.94639310079017</v>
+        <v>80.94639310079012</v>
       </c>
       <c r="K43" t="n">
-        <v>264.1681095267179</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L43" t="n">
-        <v>394.131537977095</v>
+        <v>394.1315379770949</v>
       </c>
       <c r="M43" t="n">
-        <v>426.0505092093285</v>
+        <v>426.0505092093284</v>
       </c>
       <c r="N43" t="n">
-        <v>421.4094919072671</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O43" t="n">
-        <v>373.0617966018518</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P43" t="n">
-        <v>295.4605505321078</v>
+        <v>295.4605505321077</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.28371152599</v>
+        <v>120.2837115259899</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.418016012253844</v>
+        <v>1.418016012253759</v>
       </c>
       <c r="J44" t="n">
-        <v>285.4408439058736</v>
+        <v>285.4408439058735</v>
       </c>
       <c r="K44" t="n">
-        <v>479.0528606406495</v>
+        <v>479.0528606406493</v>
       </c>
       <c r="L44" t="n">
-        <v>631.5819413035508</v>
+        <v>631.5819413035506</v>
       </c>
       <c r="M44" t="n">
-        <v>734.7459332636473</v>
+        <v>734.745933263647</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2953031209483</v>
+        <v>751.2953031209479</v>
       </c>
       <c r="O44" t="n">
-        <v>695.9568896545173</v>
+        <v>695.956889654517</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1336079712967</v>
+        <v>559.1336079712964</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.2267138993509</v>
+        <v>371.2267138993508</v>
       </c>
       <c r="R44" t="n">
-        <v>129.667832176316</v>
+        <v>129.6678321763158</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.727099882845351</v>
+        <v>1.727099882845309</v>
       </c>
       <c r="J45" t="n">
         <v>150.9986849456099</v>
       </c>
       <c r="K45" t="n">
-        <v>337.0250706876432</v>
+        <v>337.025070687643</v>
       </c>
       <c r="L45" t="n">
-        <v>499.9622446278021</v>
+        <v>499.9622446278019</v>
       </c>
       <c r="M45" t="n">
-        <v>602.9847498782331</v>
+        <v>602.9847498782328</v>
       </c>
       <c r="N45" t="n">
-        <v>633.4981487539719</v>
+        <v>633.4981487539717</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9469044897828</v>
+        <v>257.9469044897841</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.94639310079017</v>
+        <v>80.94639310079012</v>
       </c>
       <c r="K46" t="n">
-        <v>264.1681095267179</v>
+        <v>264.1681095267178</v>
       </c>
       <c r="L46" t="n">
-        <v>394.131537977095</v>
+        <v>394.1315379770949</v>
       </c>
       <c r="M46" t="n">
-        <v>426.0505092093285</v>
+        <v>426.0505092093284</v>
       </c>
       <c r="N46" t="n">
-        <v>421.4094919072671</v>
+        <v>421.409491907267</v>
       </c>
       <c r="O46" t="n">
-        <v>373.0617966018518</v>
+        <v>373.0617966018517</v>
       </c>
       <c r="P46" t="n">
-        <v>295.4605505321078</v>
+        <v>295.4605505321077</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.28371152599</v>
+        <v>120.2837115259899</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
